--- a/raw_data/NEAR-USD_4h_process.xlsx
+++ b/raw_data/NEAR-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,132 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +473,132 @@
   </si>
   <si>
     <t>2024-01-26 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>4.07495641708374</v>
+        <v>3.592005729675293</v>
       </c>
       <c r="C2">
-        <v>4.141409397125244</v>
+        <v>3.733356237411499</v>
       </c>
       <c r="D2">
-        <v>4.056294918060303</v>
+        <v>3.579718112945557</v>
       </c>
       <c r="E2">
-        <v>4.101297378540039</v>
+        <v>3.634606838226318</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11007968</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>4.096595287322998</v>
+        <v>3.630924224853516</v>
       </c>
       <c r="C3">
-        <v>4.178774833679199</v>
+        <v>3.949569225311279</v>
       </c>
       <c r="D3">
-        <v>4.034531593322754</v>
+        <v>3.630924224853516</v>
       </c>
       <c r="E3">
-        <v>4.095001220703125</v>
+        <v>3.774621963500977</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>33685984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>4.089301109313965</v>
+        <v>3.776174783706665</v>
       </c>
       <c r="C4">
-        <v>4.203279495239258</v>
+        <v>3.789737224578857</v>
       </c>
       <c r="D4">
-        <v>3.920465469360352</v>
+        <v>3.642581939697266</v>
       </c>
       <c r="E4">
-        <v>3.952109813690186</v>
+        <v>3.695089340209961</v>
       </c>
       <c r="F4">
-        <v>2030624</v>
+        <v>2934464</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>3.970741510391235</v>
+        <v>3.696230888366699</v>
       </c>
       <c r="C5">
-        <v>4.187341690063477</v>
+        <v>3.711684465408325</v>
       </c>
       <c r="D5">
-        <v>3.970741510391235</v>
+        <v>3.626372337341309</v>
       </c>
       <c r="E5">
-        <v>4.187341690063477</v>
+        <v>3.626372337341309</v>
       </c>
       <c r="F5">
-        <v>33157088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>4.195905685424805</v>
+        <v>3.625327110290527</v>
       </c>
       <c r="C6">
-        <v>4.307599067687988</v>
+        <v>3.711711883544922</v>
       </c>
       <c r="D6">
-        <v>4.075209140777588</v>
+        <v>3.59585165977478</v>
       </c>
       <c r="E6">
-        <v>4.075209140777588</v>
+        <v>3.700169563293457</v>
       </c>
       <c r="F6">
-        <v>18997984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>4.068775177001953</v>
+        <v>3.695588350296021</v>
       </c>
       <c r="C7">
-        <v>4.102641582489014</v>
+        <v>3.979145765304565</v>
       </c>
       <c r="D7">
-        <v>3.821281671524048</v>
+        <v>3.682244062423706</v>
       </c>
       <c r="E7">
-        <v>3.865827083587647</v>
+        <v>3.899585962295532</v>
       </c>
       <c r="F7">
-        <v>4841120</v>
+        <v>24472928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3.863863468170166</v>
+        <v>3.928101539611816</v>
       </c>
       <c r="C8">
-        <v>3.864215135574341</v>
+        <v>3.967876195907593</v>
       </c>
       <c r="D8">
-        <v>3.785717010498047</v>
+        <v>3.843567848205566</v>
       </c>
       <c r="E8">
-        <v>3.80133843421936</v>
+        <v>3.96440315246582</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5533664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>3.807440042495728</v>
+        <v>3.971015453338623</v>
       </c>
       <c r="C9">
-        <v>3.807440042495728</v>
+        <v>4.037876129150391</v>
       </c>
       <c r="D9">
-        <v>3.738399028778076</v>
+        <v>3.911871433258057</v>
       </c>
       <c r="E9">
-        <v>3.772584676742554</v>
+        <v>3.917214155197144</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10484832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>3.771593332290649</v>
+        <v>3.919568777084351</v>
       </c>
       <c r="C10">
-        <v>3.80738091468811</v>
+        <v>3.937740564346313</v>
       </c>
       <c r="D10">
-        <v>3.65656566619873</v>
+        <v>3.770495891571045</v>
       </c>
       <c r="E10">
-        <v>3.78935718536377</v>
+        <v>3.770495891571045</v>
       </c>
       <c r="F10">
-        <v>2746080</v>
+        <v>7191904</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>3.787789106369019</v>
+        <v>3.771344661712647</v>
       </c>
       <c r="C11">
-        <v>3.846910238265991</v>
+        <v>3.781734704971313</v>
       </c>
       <c r="D11">
-        <v>3.743072032928467</v>
+        <v>3.707213878631592</v>
       </c>
       <c r="E11">
-        <v>3.811662673950195</v>
+        <v>3.708767652511597</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1253728</v>
       </c>
       <c r="L11">
-        <v>31.97267895722915</v>
+        <v>47.10348210718686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>3.791912078857422</v>
+        <v>3.708417654037476</v>
       </c>
       <c r="C12">
-        <v>3.962595701217651</v>
+        <v>3.754136562347412</v>
       </c>
       <c r="D12">
-        <v>3.791912078857422</v>
+        <v>3.638606786727905</v>
       </c>
       <c r="E12">
-        <v>3.896539449691773</v>
+        <v>3.649730205535889</v>
       </c>
       <c r="F12">
-        <v>14140128</v>
+        <v>592096</v>
       </c>
       <c r="L12">
-        <v>43.27358042465161</v>
+        <v>42.13886570050158</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>3.897894144058228</v>
+        <v>3.642846822738648</v>
       </c>
       <c r="C13">
-        <v>3.909732580184937</v>
+        <v>3.675129413604736</v>
       </c>
       <c r="D13">
-        <v>3.734040021896361</v>
+        <v>3.575503587722778</v>
       </c>
       <c r="E13">
-        <v>3.734040021896361</v>
+        <v>3.575503587722778</v>
       </c>
       <c r="F13">
-        <v>267392</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>31.87026998754549</v>
+        <v>36.67185209003444</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,25 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>3.735477924346924</v>
+        <v>3.576510190963745</v>
       </c>
       <c r="C14">
-        <v>3.735477924346924</v>
+        <v>3.597359180450439</v>
       </c>
       <c r="D14">
-        <v>3.597574949264526</v>
+        <v>3.472113609313965</v>
       </c>
       <c r="E14">
-        <v>3.638245344161987</v>
+        <v>3.498868465423584</v>
       </c>
       <c r="F14">
-        <v>22534656</v>
+        <v>901088</v>
       </c>
       <c r="L14">
-        <v>27.12909958610116</v>
-      </c>
-      <c r="N14" t="s">
-        <v>195</v>
+        <v>31.86941090306712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1289,25 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>3.63185977935791</v>
+        <v>3.49619197845459</v>
       </c>
       <c r="C15">
-        <v>3.63185977935791</v>
+        <v>3.559748649597168</v>
       </c>
       <c r="D15">
-        <v>3.564181089401245</v>
+        <v>3.484400272369385</v>
       </c>
       <c r="E15">
-        <v>3.616920232772827</v>
+        <v>3.533438205718994</v>
       </c>
       <c r="F15">
-        <v>2473184</v>
+        <v>3512960</v>
       </c>
       <c r="L15">
-        <v>26.1546677179515</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>36.11510023891814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1315,25 +1309,28 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>3.618435621261597</v>
+        <v>3.546883106231689</v>
       </c>
       <c r="C16">
-        <v>3.646432161331177</v>
+        <v>3.546883106231689</v>
       </c>
       <c r="D16">
-        <v>3.587493419647217</v>
+        <v>3.374659776687622</v>
       </c>
       <c r="E16">
-        <v>3.646432161331177</v>
+        <v>3.374659776687622</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>531040</v>
       </c>
       <c r="L16">
-        <v>30.06547600927717</v>
+        <v>27.3185617667486</v>
       </c>
       <c r="M16">
-        <v>30.52290807394401</v>
+        <v>31.76789347618984</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1341,25 +1338,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>3.643382787704468</v>
+        <v>3.376203775405884</v>
       </c>
       <c r="C17">
-        <v>3.668765306472777</v>
+        <v>3.38439154624939</v>
       </c>
       <c r="D17">
-        <v>3.596352815628052</v>
+        <v>3.185844421386719</v>
       </c>
       <c r="E17">
-        <v>3.59709906578064</v>
+        <v>3.279009342193604</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>23477248</v>
       </c>
       <c r="L17">
-        <v>27.34232218849991</v>
+        <v>23.44797893415613</v>
       </c>
       <c r="M17">
-        <v>28.45266230978988</v>
+        <v>28.20293161746646</v>
       </c>
       <c r="N17" t="s">
         <v>195</v>
@@ -1370,25 +1367,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>3.591904878616333</v>
+        <v>3.28999400138855</v>
       </c>
       <c r="C18">
-        <v>3.654977798461914</v>
+        <v>3.372579097747803</v>
       </c>
       <c r="D18">
-        <v>3.555145978927612</v>
+        <v>3.270236253738404</v>
       </c>
       <c r="E18">
-        <v>3.654977798461914</v>
+        <v>3.339509248733521</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3820608</v>
       </c>
       <c r="L18">
-        <v>35.10080125598883</v>
+        <v>30.45897760919559</v>
       </c>
       <c r="M18">
-        <v>34.1000357160431</v>
+        <v>33.30135526023456</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1396,25 +1393,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>3.65752100944519</v>
+        <v>3.339568376541138</v>
       </c>
       <c r="C19">
-        <v>3.766457557678223</v>
+        <v>3.444271087646484</v>
       </c>
       <c r="D19">
-        <v>3.65752100944519</v>
+        <v>3.294673442840576</v>
       </c>
       <c r="E19">
-        <v>3.766457557678223</v>
+        <v>3.413339853286743</v>
       </c>
       <c r="F19">
-        <v>5437696</v>
+        <v>4752784</v>
       </c>
       <c r="L19">
-        <v>47.2955280972141</v>
+        <v>38.22613716502504</v>
       </c>
       <c r="M19">
-        <v>43.37152654215436</v>
+        <v>38.99464841234395</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1422,25 +1419,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>3.755397081375122</v>
+        <v>3.418131828308105</v>
       </c>
       <c r="C20">
-        <v>3.760393619537354</v>
+        <v>3.68096923828125</v>
       </c>
       <c r="D20">
-        <v>3.687116146087647</v>
+        <v>3.417239665985107</v>
       </c>
       <c r="E20">
-        <v>3.717114210128784</v>
+        <v>3.55518102645874</v>
       </c>
       <c r="F20">
-        <v>143184</v>
+        <v>40557680</v>
       </c>
       <c r="L20">
-        <v>43.24890319486179</v>
+        <v>50.23860225458037</v>
       </c>
       <c r="M20">
-        <v>40.64571143509848</v>
+        <v>48.15126940772829</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1448,28 +1445,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>3.710365056991577</v>
+        <v>3.569353818893433</v>
       </c>
       <c r="C21">
-        <v>3.726770401000977</v>
+        <v>3.577489137649536</v>
       </c>
       <c r="D21">
-        <v>3.664226531982422</v>
+        <v>3.418026447296143</v>
       </c>
       <c r="E21">
-        <v>3.671788930892944</v>
+        <v>3.470861673355103</v>
       </c>
       <c r="F21">
-        <v>757664</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.819567203521729</v>
+        <v>3.619071412086487</v>
       </c>
       <c r="L21">
-        <v>39.73558947220967</v>
+        <v>44.45703776187622</v>
       </c>
       <c r="M21">
-        <v>38.26663434628488</v>
+        <v>43.93004370241706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1477,31 +1474,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>3.672762393951416</v>
+        <v>3.480857372283936</v>
       </c>
       <c r="C22">
-        <v>3.763405799865722</v>
+        <v>3.528962850570679</v>
       </c>
       <c r="D22">
-        <v>3.60241961479187</v>
+        <v>3.424842834472656</v>
       </c>
       <c r="E22">
-        <v>3.652445316314697</v>
+        <v>3.431855440139771</v>
       </c>
       <c r="F22">
-        <v>14704768</v>
+        <v>1087712</v>
       </c>
       <c r="G22">
-        <v>3.811609018416632</v>
+        <v>3.61015636580331</v>
       </c>
       <c r="H22">
-        <v>3.797124600410462</v>
+        <v>3.60893384218216</v>
       </c>
       <c r="L22">
-        <v>38.24398182440549</v>
+        <v>41.94488467684787</v>
       </c>
       <c r="M22">
-        <v>37.2641742091361</v>
+        <v>42.09173237157247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1509,31 +1506,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>3.652836561203003</v>
+        <v>3.433428525924683</v>
       </c>
       <c r="C23">
-        <v>3.725418329238892</v>
+        <v>3.509127616882324</v>
       </c>
       <c r="D23">
-        <v>3.632264852523804</v>
+        <v>3.428440809249878</v>
       </c>
       <c r="E23">
-        <v>3.721075773239136</v>
+        <v>3.434765338897705</v>
       </c>
       <c r="F23">
-        <v>4374544</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3.803378723400495</v>
+        <v>3.594211726993709</v>
       </c>
       <c r="H23">
-        <v>3.778428328037262</v>
+        <v>3.591941010951996</v>
       </c>
       <c r="L23">
-        <v>46.29130308647801</v>
+        <v>42.21890811565745</v>
       </c>
       <c r="M23">
-        <v>42.97233715598006</v>
+        <v>42.28576239731682</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1541,31 +1538,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>3.73387885093689</v>
+        <v>3.438842535018921</v>
       </c>
       <c r="C24">
-        <v>3.747374296188354</v>
+        <v>3.454882621765137</v>
       </c>
       <c r="D24">
-        <v>3.684591054916382</v>
+        <v>3.354565382003784</v>
       </c>
       <c r="E24">
-        <v>3.684591054916382</v>
+        <v>3.37269139289856</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.792579844447394</v>
+        <v>3.574073514803241</v>
       </c>
       <c r="H24">
-        <v>3.765052390098572</v>
+        <v>3.575821113586426</v>
       </c>
       <c r="L24">
-        <v>42.94452807698305</v>
+        <v>37.9231872986859</v>
       </c>
       <c r="M24">
-        <v>40.84471081053961</v>
+        <v>39.26349115030729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1573,31 +1570,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>3.684669733047485</v>
+        <v>3.373301267623901</v>
       </c>
       <c r="C25">
-        <v>3.73444652557373</v>
+        <v>3.439997673034668</v>
       </c>
       <c r="D25">
-        <v>3.664998054504395</v>
+        <v>3.336695909500122</v>
       </c>
       <c r="E25">
-        <v>3.701207160949707</v>
+        <v>3.336695909500122</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.784273236856695</v>
+        <v>3.552493732502958</v>
       </c>
       <c r="H25">
-        <v>3.740745663642883</v>
+        <v>3.561337292194366</v>
       </c>
       <c r="L25">
-        <v>44.98250247323856</v>
+        <v>35.56263227094027</v>
       </c>
       <c r="M25">
-        <v>42.24714592406549</v>
+        <v>37.58589467041209</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1605,31 +1602,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>3.699237823486328</v>
+        <v>3.341651439666748</v>
       </c>
       <c r="C26">
-        <v>3.862941980361938</v>
+        <v>3.38998556137085</v>
       </c>
       <c r="D26">
-        <v>3.693540096282959</v>
+        <v>3.295994758605957</v>
       </c>
       <c r="E26">
-        <v>3.862941980361938</v>
+        <v>3.360623836517334</v>
       </c>
       <c r="F26">
-        <v>13597920</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>3.791424940811717</v>
+        <v>3.535051014686083</v>
       </c>
       <c r="H26">
-        <v>3.730132305622101</v>
+        <v>3.54436000585556</v>
       </c>
       <c r="L26">
-        <v>60.45139920374974</v>
+        <v>38.42876784887346</v>
       </c>
       <c r="M26">
-        <v>53.74266867591415</v>
+        <v>39.4383098406361</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1637,31 +1634,34 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>3.867591619491577</v>
+        <v>3.356442451477051</v>
       </c>
       <c r="C27">
-        <v>3.871409177780152</v>
+        <v>3.364763498306274</v>
       </c>
       <c r="D27">
-        <v>3.585628509521484</v>
+        <v>3.164720296859741</v>
       </c>
       <c r="E27">
-        <v>3.659006118774414</v>
+        <v>3.197184801101685</v>
       </c>
       <c r="F27">
-        <v>22391504</v>
+        <v>9013056</v>
       </c>
       <c r="G27">
-        <v>3.779386866081053</v>
+        <v>3.504335904360229</v>
       </c>
       <c r="H27">
-        <v>3.719791257381439</v>
+        <v>3.509239947795868</v>
       </c>
       <c r="L27">
-        <v>43.21530989455159</v>
+        <v>28.63987970248345</v>
       </c>
       <c r="M27">
-        <v>42.30740010333307</v>
+        <v>32.37109400712684</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1669,31 +1669,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>3.652321338653565</v>
+        <v>3.208504199981689</v>
       </c>
       <c r="C28">
-        <v>3.775920629501343</v>
+        <v>3.221322774887085</v>
       </c>
       <c r="D28">
-        <v>3.652321338653565</v>
+        <v>2.946654081344604</v>
       </c>
       <c r="E28">
-        <v>3.669038057327271</v>
+        <v>3.01678991317749</v>
       </c>
       <c r="F28">
-        <v>938976</v>
+        <v>36887632</v>
       </c>
       <c r="G28">
-        <v>3.769355156194345</v>
+        <v>3.460013541525434</v>
       </c>
       <c r="H28">
-        <v>3.713176238536835</v>
+        <v>3.461859285831451</v>
       </c>
       <c r="L28">
-        <v>44.09739043957908</v>
+        <v>21.75788250306827</v>
       </c>
       <c r="M28">
-        <v>42.95046557295687</v>
+        <v>26.68676603730371</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1701,31 +1704,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>3.662052869796753</v>
+        <v>3.016381978988647</v>
       </c>
       <c r="C29">
-        <v>3.682763338088989</v>
+        <v>3.197192430496216</v>
       </c>
       <c r="D29">
-        <v>3.57828426361084</v>
+        <v>3.002685070037842</v>
       </c>
       <c r="E29">
-        <v>3.596028566360474</v>
+        <v>3.171175718307495</v>
       </c>
       <c r="F29">
-        <v>4919312</v>
+        <v>23735616</v>
       </c>
       <c r="G29">
-        <v>3.753598193482175</v>
+        <v>3.433755557596531</v>
       </c>
       <c r="H29">
-        <v>3.704348433017731</v>
+        <v>3.424557363986969</v>
       </c>
       <c r="L29">
-        <v>39.12181863190469</v>
+        <v>36.45852338146647</v>
       </c>
       <c r="M29">
-        <v>39.4997543626619</v>
+        <v>36.89910242204095</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1733,31 +1736,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>3.600440502166748</v>
+        <v>3.165990352630615</v>
       </c>
       <c r="C30">
-        <v>3.6368408203125</v>
+        <v>3.239838600158691</v>
       </c>
       <c r="D30">
-        <v>3.579526662826538</v>
+        <v>3.120837688446045</v>
       </c>
       <c r="E30">
-        <v>3.601582050323486</v>
+        <v>3.174582958221436</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10985424</v>
       </c>
       <c r="G30">
-        <v>3.739778544104113</v>
+        <v>3.410194412198795</v>
       </c>
       <c r="H30">
-        <v>3.694959676265717</v>
+        <v>3.394761717319489</v>
       </c>
       <c r="L30">
-        <v>39.70399871538848</v>
+        <v>36.75356250610574</v>
       </c>
       <c r="M30">
-        <v>39.89532122666042</v>
+        <v>37.10732261690841</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1765,34 +1768,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>3.606349468231201</v>
+        <v>3.193253755569458</v>
       </c>
       <c r="C31">
-        <v>3.640212535858153</v>
+        <v>3.284152030944824</v>
       </c>
       <c r="D31">
-        <v>3.590847730636597</v>
+        <v>3.193253755569458</v>
       </c>
       <c r="E31">
-        <v>3.619096040725708</v>
+        <v>3.232290744781494</v>
       </c>
       <c r="F31">
-        <v>714816</v>
+        <v>27520400</v>
       </c>
       <c r="G31">
-        <v>3.728807407433349</v>
+        <v>3.394021351524495</v>
       </c>
       <c r="H31">
-        <v>3.685331344604492</v>
+        <v>3.370937871932983</v>
       </c>
       <c r="I31">
-        <v>3.77194520632426</v>
+        <v>3.503669476509094</v>
       </c>
       <c r="L31">
-        <v>41.68263370153161</v>
+        <v>41.89429828531342</v>
       </c>
       <c r="M31">
-        <v>41.20100185678289</v>
+        <v>40.67775858742937</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1800,34 +1803,34 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>3.626721382141113</v>
+        <v>3.23394250869751</v>
       </c>
       <c r="C32">
-        <v>3.819831609725952</v>
+        <v>3.46792459487915</v>
       </c>
       <c r="D32">
-        <v>3.626721382141113</v>
+        <v>3.200844764709473</v>
       </c>
       <c r="E32">
-        <v>3.816556453704834</v>
+        <v>3.46792459487915</v>
       </c>
       <c r="F32">
-        <v>11908272</v>
+        <v>32158320</v>
       </c>
       <c r="G32">
-        <v>3.736784593458029</v>
+        <v>3.4007398281931</v>
       </c>
       <c r="H32">
-        <v>3.681332194805145</v>
+        <v>3.361847591400147</v>
       </c>
       <c r="I32">
-        <v>3.762453842163086</v>
+        <v>3.498113401730855</v>
       </c>
       <c r="L32">
-        <v>58.82186393755124</v>
+        <v>57.69130041911644</v>
       </c>
       <c r="M32">
-        <v>53.47295679488533</v>
+        <v>52.52842455056661</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1835,34 +1838,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>3.815192699432373</v>
+        <v>3.473957538604736</v>
       </c>
       <c r="C33">
-        <v>3.830906391143799</v>
+        <v>3.474025011062622</v>
       </c>
       <c r="D33">
-        <v>3.764456987380981</v>
+        <v>3.386223554611206</v>
       </c>
       <c r="E33">
-        <v>3.801510810852051</v>
+        <v>3.40491509437561</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>11154944</v>
       </c>
       <c r="G33">
-        <v>3.742668795039304</v>
+        <v>3.401119397846055</v>
       </c>
       <c r="H33">
-        <v>3.68470573425293</v>
+        <v>3.353318166732788</v>
       </c>
       <c r="I33">
-        <v>3.752670828501384</v>
+        <v>3.485789839426677</v>
       </c>
       <c r="L33">
-        <v>57.37639131569117</v>
+        <v>53.32969933975601</v>
       </c>
       <c r="M33">
-        <v>52.57259179454706</v>
+        <v>49.67096032256389</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1870,34 +1873,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>3.79937744140625</v>
+        <v>3.416874885559082</v>
       </c>
       <c r="C34">
-        <v>3.939784765243529</v>
+        <v>3.494734525680542</v>
       </c>
       <c r="D34">
-        <v>3.770041227340698</v>
+        <v>3.36316704750061</v>
       </c>
       <c r="E34">
-        <v>3.919311285018921</v>
+        <v>3.409918785095215</v>
       </c>
       <c r="F34">
-        <v>34193728</v>
+        <v>7404576</v>
       </c>
       <c r="G34">
-        <v>3.758727203219269</v>
+        <v>3.401919342141433</v>
       </c>
       <c r="H34">
-        <v>3.698759031295777</v>
+        <v>3.348870682716369</v>
       </c>
       <c r="I34">
-        <v>3.751577544212341</v>
+        <v>3.476284154256185</v>
       </c>
       <c r="L34">
-        <v>64.96069025704907</v>
+        <v>53.64280413172605</v>
       </c>
       <c r="M34">
-        <v>58.46888378806158</v>
+        <v>49.90401533530395</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1905,37 +1908,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>3.918776750564575</v>
+        <v>3.408448219299316</v>
       </c>
       <c r="C35">
-        <v>4.176321506500244</v>
+        <v>3.534075260162353</v>
       </c>
       <c r="D35">
-        <v>3.918776750564575</v>
+        <v>3.400846004486084</v>
       </c>
       <c r="E35">
-        <v>4.176321506500244</v>
+        <v>3.483983993530273</v>
       </c>
       <c r="F35">
-        <v>50715952</v>
+        <v>11043072</v>
       </c>
       <c r="G35">
-        <v>3.796690321699358</v>
+        <v>3.409379764994964</v>
       </c>
       <c r="H35">
-        <v>3.726729094982147</v>
+        <v>3.346397972106934</v>
       </c>
       <c r="I35">
-        <v>3.751210204760234</v>
+        <v>3.47153787612915</v>
       </c>
       <c r="L35">
-        <v>75.61190233379243</v>
+        <v>58.30132152200513</v>
       </c>
       <c r="M35">
-        <v>67.85776263187982</v>
-      </c>
-      <c r="O35" t="s">
-        <v>195</v>
+        <v>53.34768495602343</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1943,37 +1943,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>4.186472415924072</v>
+        <v>3.491614818572998</v>
       </c>
       <c r="C36">
-        <v>4.29492712020874</v>
+        <v>3.498742580413818</v>
       </c>
       <c r="D36">
-        <v>4.119044780731201</v>
+        <v>3.329088687896729</v>
       </c>
       <c r="E36">
-        <v>4.128285884857178</v>
+        <v>3.335625171661377</v>
       </c>
       <c r="F36">
-        <v>133518080</v>
+        <v>7136672</v>
       </c>
       <c r="G36">
-        <v>3.826835372895523</v>
+        <v>3.402674801964638</v>
       </c>
       <c r="H36">
-        <v>3.750821781158447</v>
+        <v>3.344446241855621</v>
       </c>
       <c r="I36">
-        <v>3.752979429562886</v>
+        <v>3.459386396408081</v>
       </c>
       <c r="L36">
-        <v>71.06943419599163</v>
+        <v>47.53644783646789</v>
       </c>
       <c r="M36">
-        <v>64.90443123329759</v>
-      </c>
-      <c r="O36" t="s">
-        <v>195</v>
+        <v>46.45850399129358</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1981,34 +1978,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>4.15284538269043</v>
+        <v>3.333585023880005</v>
       </c>
       <c r="C37">
-        <v>4.15284538269043</v>
+        <v>3.357598304748535</v>
       </c>
       <c r="D37">
-        <v>3.892822742462158</v>
+        <v>3.163764953613281</v>
       </c>
       <c r="E37">
-        <v>3.901038408279419</v>
+        <v>3.194080114364624</v>
       </c>
       <c r="F37">
-        <v>144217536</v>
+        <v>7683808</v>
       </c>
       <c r="G37">
-        <v>3.833581103384968</v>
+        <v>3.383711648546455</v>
       </c>
       <c r="H37">
-        <v>3.766018748283386</v>
+        <v>3.340199780464173</v>
       </c>
       <c r="I37">
-        <v>3.754153140385946</v>
+        <v>3.435869534810384</v>
       </c>
       <c r="L37">
-        <v>53.85129985000135</v>
+        <v>39.67380952515959</v>
       </c>
       <c r="M37">
-        <v>53.12483114855952</v>
+        <v>41.01630336744132</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2016,34 +2013,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>3.899504184722901</v>
+        <v>3.189939260482788</v>
       </c>
       <c r="C38">
-        <v>3.965067386627197</v>
+        <v>3.1945960521698</v>
       </c>
       <c r="D38">
-        <v>3.868717670440674</v>
+        <v>3.050355434417725</v>
       </c>
       <c r="E38">
-        <v>3.886982917785645</v>
+        <v>3.069243669509888</v>
       </c>
       <c r="F38">
-        <v>53100352</v>
+        <v>5985056</v>
       </c>
       <c r="G38">
-        <v>3.83843581378503</v>
+        <v>3.355123650452221</v>
       </c>
       <c r="H38">
-        <v>3.777619004249573</v>
+        <v>3.326686501502991</v>
       </c>
       <c r="I38">
-        <v>3.757007956504822</v>
+        <v>3.40603088537852</v>
       </c>
       <c r="L38">
-        <v>52.9585318204264</v>
+        <v>34.08074468535598</v>
       </c>
       <c r="M38">
-        <v>52.49027989512298</v>
+        <v>36.9097131882214</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2051,34 +2048,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>3.887945890426636</v>
+        <v>3.080460071563721</v>
       </c>
       <c r="C39">
-        <v>3.972129106521606</v>
+        <v>3.220411777496338</v>
       </c>
       <c r="D39">
-        <v>3.876490592956543</v>
+        <v>3.037787437438965</v>
       </c>
       <c r="E39">
-        <v>3.926188468933105</v>
+        <v>3.220411777496338</v>
       </c>
       <c r="F39">
-        <v>7476032</v>
+        <v>31222624</v>
       </c>
       <c r="G39">
-        <v>3.8464133278894</v>
+        <v>3.34287711654714</v>
       </c>
       <c r="H39">
-        <v>3.785605549812317</v>
+        <v>3.317040097713471</v>
       </c>
       <c r="I39">
-        <v>3.762128082911174</v>
+        <v>3.38280413945516</v>
       </c>
       <c r="L39">
-        <v>55.28475884322757</v>
+        <v>44.70099134905315</v>
       </c>
       <c r="M39">
-        <v>54.13589515624997</v>
+        <v>44.19581278317336</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2086,34 +2083,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>3.927193880081177</v>
+        <v>3.224968433380127</v>
       </c>
       <c r="C40">
-        <v>4.025809764862061</v>
+        <v>3.248535871505737</v>
       </c>
       <c r="D40">
-        <v>3.915469646453857</v>
+        <v>3.201923131942749</v>
       </c>
       <c r="E40">
-        <v>3.921888589859009</v>
+        <v>3.22282075881958</v>
       </c>
       <c r="F40">
-        <v>3713088</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3.853274715341183</v>
+        <v>3.331962902208271</v>
       </c>
       <c r="H40">
-        <v>3.795844268798828</v>
+        <v>3.300422084331513</v>
       </c>
       <c r="I40">
-        <v>3.766545796394348</v>
+        <v>3.364548301696777</v>
       </c>
       <c r="L40">
-        <v>54.94948777508006</v>
+        <v>44.86025360140785</v>
       </c>
       <c r="M40">
-        <v>53.91532263634706</v>
+        <v>44.30619457347674</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2121,34 +2118,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>3.925613641738892</v>
+        <v>3.216983079910278</v>
       </c>
       <c r="C41">
-        <v>4.073647499084473</v>
+        <v>3.273611783981323</v>
       </c>
       <c r="D41">
-        <v>3.911137819290161</v>
+        <v>3.189045429229736</v>
       </c>
       <c r="E41">
-        <v>3.945096015930176</v>
+        <v>3.201850652694702</v>
       </c>
       <c r="F41">
-        <v>7660992</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3.861622106303818</v>
+        <v>3.320134515888856</v>
       </c>
       <c r="H41">
-        <v>3.80950962305069</v>
+        <v>3.286971533298492</v>
       </c>
       <c r="I41">
-        <v>3.770993574460348</v>
+        <v>3.347651068369548</v>
       </c>
       <c r="L41">
-        <v>56.54944809434958</v>
+        <v>43.62970849730395</v>
       </c>
       <c r="M41">
-        <v>54.98145938076808</v>
+        <v>43.49957721952702</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2156,34 +2153,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>3.95431923866272</v>
+        <v>3.20264720916748</v>
       </c>
       <c r="C42">
-        <v>4.040374279022217</v>
+        <v>3.306189060211182</v>
       </c>
       <c r="D42">
-        <v>3.85709023475647</v>
+        <v>3.179040908813477</v>
       </c>
       <c r="E42">
-        <v>3.85709023475647</v>
+        <v>3.259528160095215</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3.861210117981332</v>
+        <v>3.314624847180343</v>
       </c>
       <c r="H42">
-        <v>3.819741868972778</v>
+        <v>3.278355169296264</v>
       </c>
       <c r="I42">
-        <v>3.769678600629171</v>
+        <v>3.334644333521525</v>
       </c>
       <c r="L42">
-        <v>49.1088775969386</v>
+        <v>48.03996290442026</v>
       </c>
       <c r="M42">
-        <v>50.23538035733773</v>
+        <v>46.39049314680722</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2191,34 +2188,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>3.815441608428955</v>
+        <v>3.262264966964722</v>
       </c>
       <c r="C43">
-        <v>3.815441608428955</v>
+        <v>3.262264966964722</v>
       </c>
       <c r="D43">
-        <v>3.243268013000488</v>
+        <v>3.111872911453247</v>
       </c>
       <c r="E43">
-        <v>3.560314178466797</v>
+        <v>3.175835132598877</v>
       </c>
       <c r="F43">
-        <v>80891008</v>
+        <v>6340816</v>
       </c>
       <c r="G43">
-        <v>3.833855941661829</v>
+        <v>3.30200760040021</v>
       </c>
       <c r="H43">
-        <v>3.811703789234161</v>
+        <v>3.265408658981323</v>
       </c>
       <c r="I43">
-        <v>3.763887739181519</v>
+        <v>3.321322051684062</v>
       </c>
       <c r="L43">
-        <v>32.75738832194717</v>
+        <v>42.59930751697075</v>
       </c>
       <c r="M43">
-        <v>38.24578299172712</v>
+        <v>42.95590903679839</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2226,34 +2223,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>3.592005729675293</v>
+        <v>3.218111515045166</v>
       </c>
       <c r="C44">
-        <v>3.733356237411499</v>
+        <v>3.334361791610718</v>
       </c>
       <c r="D44">
-        <v>3.579718112945557</v>
+        <v>3.202250719070435</v>
       </c>
       <c r="E44">
-        <v>3.634606838226318</v>
+        <v>3.29615592956543</v>
       </c>
       <c r="F44">
-        <v>11007968</v>
+        <v>7465760</v>
       </c>
       <c r="G44">
-        <v>3.815742386804055</v>
+        <v>3.301475630324321</v>
       </c>
       <c r="H44">
-        <v>3.809204578399658</v>
+        <v>3.261581885814667</v>
       </c>
       <c r="I44">
-        <v>3.763766455650329</v>
+        <v>3.314564967155456</v>
       </c>
       <c r="L44">
-        <v>38.52220083339003</v>
+        <v>51.48564427758092</v>
       </c>
       <c r="M44">
-        <v>41.97898876334091</v>
+        <v>48.82219133600208</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2261,34 +2258,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>3.630924224853516</v>
+        <v>3.289589405059814</v>
       </c>
       <c r="C45">
-        <v>3.949569225311279</v>
+        <v>3.671242952346802</v>
       </c>
       <c r="D45">
-        <v>3.630924224853516</v>
+        <v>3.209935903549194</v>
       </c>
       <c r="E45">
-        <v>3.774621963500977</v>
+        <v>3.576937913894653</v>
       </c>
       <c r="F45">
-        <v>33685984</v>
+        <v>44148128</v>
       </c>
       <c r="G45">
-        <v>3.812004166503775</v>
+        <v>3.326517656103442</v>
       </c>
       <c r="H45">
-        <v>3.812875318527222</v>
+        <v>3.273593986034393</v>
       </c>
       <c r="I45">
-        <v>3.769023180007935</v>
+        <v>3.316014957427979</v>
       </c>
       <c r="L45">
-        <v>47.97820245299425</v>
+        <v>65.50533949085998</v>
       </c>
       <c r="M45">
-        <v>48.3199092387315</v>
+        <v>59.3324523456779</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2296,34 +2293,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>3.776174783706665</v>
+        <v>3.594749689102173</v>
       </c>
       <c r="C46">
-        <v>3.789737224578857</v>
+        <v>3.658423185348511</v>
       </c>
       <c r="D46">
-        <v>3.642581939697266</v>
+        <v>3.527727127075196</v>
       </c>
       <c r="E46">
-        <v>3.695089340209961</v>
+        <v>3.653426885604858</v>
       </c>
       <c r="F46">
-        <v>2934464</v>
+        <v>24966912</v>
       </c>
       <c r="G46">
-        <v>3.80137554593161</v>
+        <v>3.356236676967207</v>
       </c>
       <c r="H46">
-        <v>3.804482686519623</v>
+        <v>3.288234138488769</v>
       </c>
       <c r="I46">
-        <v>3.770645085970561</v>
+        <v>3.325307194391887</v>
       </c>
       <c r="L46">
-        <v>43.68443224591606</v>
+        <v>68.31173496737787</v>
       </c>
       <c r="M46">
-        <v>45.2919954531502</v>
+        <v>61.64338031232231</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2331,34 +2328,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>3.696230888366699</v>
+        <v>3.653037548065186</v>
       </c>
       <c r="C47">
-        <v>3.711684465408325</v>
+        <v>3.660433292388916</v>
       </c>
       <c r="D47">
-        <v>3.626372337341309</v>
+        <v>3.518009662628174</v>
       </c>
       <c r="E47">
-        <v>3.626372337341309</v>
+        <v>3.634048223495483</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>17029376</v>
       </c>
       <c r="G47">
-        <v>3.785466163332492</v>
+        <v>3.381492272106141</v>
       </c>
       <c r="H47">
-        <v>3.802850997447968</v>
+        <v>3.310077309608459</v>
       </c>
       <c r="I47">
-        <v>3.77162086168925</v>
+        <v>3.337141823768616</v>
       </c>
       <c r="L47">
-        <v>40.18846267881957</v>
+        <v>66.76358114012423</v>
       </c>
       <c r="M47">
-        <v>42.79664957547453</v>
+        <v>60.70224337872027</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2366,4868 +2363,4859 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>3.625327110290527</v>
+        <v>3.624548196792603</v>
       </c>
       <c r="C48">
-        <v>3.711711883544922</v>
+        <v>3.77145266532898</v>
       </c>
       <c r="D48">
-        <v>3.59585165977478</v>
+        <v>3.598501205444336</v>
       </c>
       <c r="E48">
-        <v>3.700169563293457</v>
+        <v>3.769397735595703</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>35899936</v>
       </c>
       <c r="G48">
-        <v>3.777711926965307</v>
+        <v>3.416756405150646</v>
       </c>
       <c r="H48">
-        <v>3.804407572746277</v>
+        <v>3.34770770072937</v>
       </c>
       <c r="I48">
-        <v>3.773127253850301</v>
+        <v>3.351471439997355</v>
       </c>
       <c r="L48">
-        <v>45.4616288905668</v>
+        <v>71.78753119971802</v>
       </c>
       <c r="M48">
-        <v>46.22325663903818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>64.75023984794737</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>3.695588350296021</v>
+        <v>3.751198768615722</v>
       </c>
       <c r="C49">
-        <v>3.979145765304565</v>
+        <v>3.812752246856689</v>
       </c>
       <c r="D49">
-        <v>3.682244062423706</v>
+        <v>3.604891538619995</v>
       </c>
       <c r="E49">
-        <v>3.899585962295532</v>
+        <v>3.604891538619995</v>
       </c>
       <c r="F49">
-        <v>24472928</v>
+        <v>46966816</v>
       </c>
       <c r="G49">
-        <v>3.7887913847226</v>
+        <v>3.433859599102405</v>
       </c>
       <c r="H49">
-        <v>3.81958544254303</v>
+        <v>3.369393491744995</v>
       </c>
       <c r="I49">
-        <v>3.777564867337545</v>
+        <v>3.35785649617513</v>
       </c>
       <c r="L49">
-        <v>56.98919081580436</v>
+        <v>59.49152010039289</v>
       </c>
       <c r="M49">
-        <v>54.20607463201073</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>57.05727662264824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>3.928101539611816</v>
+        <v>3.610428333282471</v>
       </c>
       <c r="C50">
-        <v>3.967876195907593</v>
+        <v>3.682064056396485</v>
       </c>
       <c r="D50">
-        <v>3.843567848205566</v>
+        <v>3.54000997543335</v>
       </c>
       <c r="E50">
-        <v>3.96440315246582</v>
+        <v>3.682064056396485</v>
       </c>
       <c r="F50">
-        <v>5533664</v>
+        <v>15820512</v>
       </c>
       <c r="G50">
-        <v>3.804756090881074</v>
+        <v>3.456423640674594</v>
       </c>
       <c r="H50">
-        <v>3.837726497650146</v>
+        <v>3.394767546653747</v>
       </c>
       <c r="I50">
-        <v>3.785807832082113</v>
+        <v>3.362085930506388</v>
       </c>
       <c r="L50">
-        <v>60.07495390957117</v>
+        <v>62.84974627352962</v>
       </c>
       <c r="M50">
-        <v>56.46803016376627</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>59.48887407083995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>3.971015453338623</v>
+        <v>3.67951226234436</v>
       </c>
       <c r="C51">
-        <v>4.037876129150391</v>
+        <v>3.752588510513306</v>
       </c>
       <c r="D51">
-        <v>3.911871433258057</v>
+        <v>3.571230173110962</v>
       </c>
       <c r="E51">
-        <v>3.917214155197144</v>
+        <v>3.619217872619629</v>
       </c>
       <c r="F51">
-        <v>10484832</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>3.814979551273444</v>
+        <v>3.471223116305961</v>
       </c>
       <c r="H51">
-        <v>3.852632403373718</v>
+        <v>3.414113903045654</v>
       </c>
       <c r="I51">
-        <v>3.793988672892253</v>
+        <v>3.367031137148539</v>
       </c>
       <c r="L51">
-        <v>56.74081559432013</v>
+        <v>58.41321193817391</v>
       </c>
       <c r="M51">
-        <v>54.36273626949522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>56.67444507221559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>3.919568777084351</v>
+        <v>3.615717649459839</v>
       </c>
       <c r="C52">
-        <v>3.937740564346313</v>
+        <v>3.646394968032837</v>
       </c>
       <c r="D52">
-        <v>3.770495891571045</v>
+        <v>3.532979488372803</v>
       </c>
       <c r="E52">
-        <v>3.770495891571045</v>
+        <v>3.584355115890503</v>
       </c>
       <c r="F52">
-        <v>7191904</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3.81093558220959</v>
+        <v>3.481507843540919</v>
       </c>
       <c r="H52">
-        <v>3.850329375267029</v>
+        <v>3.419935429096222</v>
       </c>
       <c r="I52">
-        <v>3.797923692067464</v>
+        <v>3.372114459673563</v>
       </c>
       <c r="L52">
-        <v>47.5165638801511</v>
+        <v>55.94851123135476</v>
       </c>
       <c r="M52">
-        <v>48.32949784155576</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>55.1166690710237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>3.771344661712647</v>
+        <v>3.560369729995728</v>
       </c>
       <c r="C53">
-        <v>3.781734704971313</v>
+        <v>3.621150732040405</v>
       </c>
       <c r="D53">
-        <v>3.707213878631592</v>
+        <v>3.526227712631226</v>
       </c>
       <c r="E53">
-        <v>3.708767652511597</v>
+        <v>3.530038833618164</v>
       </c>
       <c r="F53">
-        <v>1253728</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>3.801647588600681</v>
+        <v>3.48591975172976</v>
       </c>
       <c r="H53">
-        <v>3.845692217350006</v>
+        <v>3.426191616058349</v>
       </c>
       <c r="I53">
-        <v>3.797513421376546</v>
+        <v>3.375290242830912</v>
       </c>
       <c r="L53">
-        <v>44.12157170365022</v>
+        <v>52.09571583779902</v>
       </c>
       <c r="M53">
-        <v>46.01562799556648</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>52.68685521607287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>3.708417654037476</v>
+        <v>3.533428907394409</v>
       </c>
       <c r="C54">
-        <v>3.754136562347412</v>
+        <v>3.591485261917114</v>
       </c>
       <c r="D54">
-        <v>3.638606786727905</v>
+        <v>3.497859001159668</v>
       </c>
       <c r="E54">
-        <v>3.649730205535889</v>
+        <v>3.581241607666016</v>
       </c>
       <c r="F54">
-        <v>592096</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>3.787836917412973</v>
+        <v>3.494585374996692</v>
       </c>
       <c r="H54">
-        <v>3.832213163375854</v>
+        <v>3.434757757186889</v>
       </c>
       <c r="I54">
-        <v>3.796351393063863</v>
+        <v>3.382241916656494</v>
       </c>
       <c r="L54">
-        <v>40.97182747566116</v>
+        <v>55.35607719024418</v>
       </c>
       <c r="M54">
-        <v>43.85313051925858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>54.71363087647825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>3.642846822738648</v>
+        <v>3.576758146286011</v>
       </c>
       <c r="C55">
-        <v>3.675129413604736</v>
+        <v>3.669027805328369</v>
       </c>
       <c r="D55">
-        <v>3.575503587722778</v>
+        <v>3.529762029647827</v>
       </c>
       <c r="E55">
-        <v>3.575503587722778</v>
+        <v>3.548882961273193</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2828096</v>
       </c>
       <c r="G55">
-        <v>3.768533887441137</v>
+        <v>3.499521519203647</v>
       </c>
       <c r="H55">
-        <v>3.802172267436981</v>
+        <v>3.438002705574036</v>
       </c>
       <c r="I55">
-        <v>3.792161273956299</v>
+        <v>3.389314818382263</v>
       </c>
       <c r="L55">
-        <v>37.21416931304237</v>
+        <v>52.80111850384351</v>
       </c>
       <c r="M55">
-        <v>41.22965654713223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>53.16367131372925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>3.576510190963745</v>
+        <v>3.527576446533203</v>
       </c>
       <c r="C56">
-        <v>3.597359180450439</v>
+        <v>3.617455720901489</v>
       </c>
       <c r="D56">
-        <v>3.472113609313965</v>
+        <v>3.406130075454712</v>
       </c>
       <c r="E56">
-        <v>3.498868465423584</v>
+        <v>3.603357791900634</v>
       </c>
       <c r="F56">
-        <v>901088</v>
+        <v>27759168</v>
       </c>
       <c r="G56">
-        <v>3.744018849075905</v>
+        <v>3.508961180357919</v>
       </c>
       <c r="H56">
-        <v>3.770701396465301</v>
+        <v>3.451389336585998</v>
       </c>
       <c r="I56">
-        <v>3.78002549012502</v>
+        <v>3.397405950228373</v>
       </c>
       <c r="L56">
-        <v>33.63155849931977</v>
+        <v>56.59526222205874</v>
       </c>
       <c r="M56">
-        <v>38.65824739427314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>55.45162347343152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>3.49619197845459</v>
+        <v>3.598051071166992</v>
       </c>
       <c r="C57">
-        <v>3.559748649597168</v>
+        <v>3.635585784912109</v>
       </c>
       <c r="D57">
-        <v>3.484400272369385</v>
+        <v>3.340725183486938</v>
       </c>
       <c r="E57">
-        <v>3.533438205718994</v>
+        <v>3.449952840805054</v>
       </c>
       <c r="F57">
-        <v>3512960</v>
+        <v>15810512</v>
       </c>
       <c r="G57">
-        <v>3.724875154225276</v>
+        <v>3.503596785853113</v>
       </c>
       <c r="H57">
-        <v>3.75232138633728</v>
+        <v>3.46418297290802</v>
       </c>
       <c r="I57">
-        <v>3.775839893023173</v>
+        <v>3.405831551551819</v>
       </c>
       <c r="L57">
-        <v>36.72297920448543</v>
+        <v>45.10768128899261</v>
       </c>
       <c r="M57">
-        <v>40.46212772835189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>48.29663213081445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>3.546883106231689</v>
+        <v>3.448808193206787</v>
       </c>
       <c r="C58">
-        <v>3.546883106231689</v>
+        <v>3.46757698059082</v>
       </c>
       <c r="D58">
-        <v>3.374659776687622</v>
+        <v>3.314171552658081</v>
       </c>
       <c r="E58">
-        <v>3.374659776687622</v>
+        <v>3.432200193405152</v>
       </c>
       <c r="F58">
-        <v>531040</v>
+        <v>1574016</v>
       </c>
       <c r="G58">
-        <v>3.693037392630944</v>
+        <v>3.497106186539662</v>
       </c>
       <c r="H58">
-        <v>3.726705229282379</v>
+        <v>3.482330799102783</v>
       </c>
       <c r="I58">
-        <v>3.766027283668518</v>
+        <v>3.419678560892741</v>
       </c>
       <c r="L58">
-        <v>29.59901594809044</v>
+        <v>43.94637223810273</v>
       </c>
       <c r="M58">
-        <v>35.3240352117485</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>47.53228268961341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>3.376203775405884</v>
+        <v>3.416702270507812</v>
       </c>
       <c r="C59">
-        <v>3.38439154624939</v>
+        <v>3.512893915176392</v>
       </c>
       <c r="D59">
-        <v>3.185844421386719</v>
+        <v>3.398483514785767</v>
       </c>
       <c r="E59">
-        <v>3.279009342193604</v>
+        <v>3.476646900177002</v>
       </c>
       <c r="F59">
-        <v>23477248</v>
+        <v>1037408</v>
       </c>
       <c r="G59">
-        <v>3.655398478954822</v>
+        <v>3.495246251415783</v>
       </c>
       <c r="H59">
-        <v>3.694346272945404</v>
+        <v>3.495142555236816</v>
       </c>
       <c r="I59">
-        <v>3.755459976196289</v>
+        <v>3.429860933621725</v>
       </c>
       <c r="L59">
-        <v>26.15975306222542</v>
+        <v>47.73626347347592</v>
       </c>
       <c r="M59">
-        <v>32.63545495897976</v>
-      </c>
-      <c r="N59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>49.67952464502377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>3.28999400138855</v>
+        <v>3.474863767623901</v>
       </c>
       <c r="C60">
-        <v>3.372579097747803</v>
+        <v>3.474863767623901</v>
       </c>
       <c r="D60">
-        <v>3.270236253738404</v>
+        <v>3.371263980865479</v>
       </c>
       <c r="E60">
-        <v>3.339509248733521</v>
+        <v>3.385246992111206</v>
       </c>
       <c r="F60">
-        <v>3820608</v>
+        <v>3422544</v>
       </c>
       <c r="G60">
-        <v>3.626681276207431</v>
+        <v>3.485246318751731</v>
       </c>
       <c r="H60">
-        <v>3.66522730588913</v>
+        <v>3.503263866901398</v>
       </c>
       <c r="I60">
-        <v>3.74672421614329</v>
+        <v>3.436883068084717</v>
       </c>
       <c r="L60">
-        <v>31.79873627133018</v>
+        <v>41.27948373003758</v>
       </c>
       <c r="M60">
-        <v>35.95581252955262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>45.55115076346749</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>3.339568376541138</v>
+        <v>3.393402338027954</v>
       </c>
       <c r="C61">
-        <v>3.444271087646484</v>
+        <v>3.451607227325439</v>
       </c>
       <c r="D61">
-        <v>3.294673442840576</v>
+        <v>3.374805927276612</v>
       </c>
       <c r="E61">
-        <v>3.413339853286743</v>
+        <v>3.430276393890381</v>
       </c>
       <c r="F61">
-        <v>4752784</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>3.607286601396459</v>
+        <v>3.480249052855244</v>
       </c>
       <c r="H61">
-        <v>3.638639497756958</v>
+        <v>3.514685153961182</v>
       </c>
       <c r="I61">
-        <v>3.739865676561991</v>
+        <v>3.44348258972168</v>
       </c>
       <c r="L61">
-        <v>38.27066198827772</v>
+        <v>45.3745902114397</v>
       </c>
       <c r="M61">
-        <v>39.85201031629295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>47.8504082277746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>3.418131828308105</v>
+        <v>3.436715841293335</v>
       </c>
       <c r="C62">
-        <v>3.68096923828125</v>
+        <v>3.440098524093628</v>
       </c>
       <c r="D62">
-        <v>3.417239665985107</v>
+        <v>3.381789922714233</v>
       </c>
       <c r="E62">
-        <v>3.55518102645874</v>
+        <v>3.435796976089477</v>
       </c>
       <c r="F62">
-        <v>40557680</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>3.602549730947576</v>
+        <v>3.476207954967447</v>
       </c>
       <c r="H62">
-        <v>3.623544037342072</v>
+        <v>3.523498594760895</v>
       </c>
       <c r="I62">
-        <v>3.731153162320455</v>
+        <v>3.442411669095357</v>
       </c>
       <c r="L62">
-        <v>48.77646113605453</v>
+        <v>45.89501009327823</v>
       </c>
       <c r="M62">
-        <v>46.57629170602812</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>48.13954849615193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>3.569353818893433</v>
+        <v>3.426119089126587</v>
       </c>
       <c r="C63">
-        <v>3.577489137649536</v>
+        <v>3.438628196716309</v>
       </c>
       <c r="D63">
-        <v>3.418026447296143</v>
+        <v>3.396551847457886</v>
       </c>
       <c r="E63">
-        <v>3.470861673355103</v>
+        <v>3.404881715774536</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3.59057808934826</v>
+        <v>3.469723751404455</v>
       </c>
       <c r="H63">
-        <v>3.619071412086487</v>
+        <v>3.534950923919678</v>
       </c>
       <c r="I63">
-        <v>3.72013152440389</v>
+        <v>3.442410556475322</v>
       </c>
       <c r="L63">
-        <v>43.79208744476081</v>
+        <v>43.29634136476614</v>
       </c>
       <c r="M63">
-        <v>43.46544555744473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>46.58197594930456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>3.480857372283936</v>
+        <v>3.401586055755615</v>
       </c>
       <c r="C64">
-        <v>3.528962850570679</v>
+        <v>3.411269187927246</v>
       </c>
       <c r="D64">
-        <v>3.424842834472656</v>
+        <v>3.344300985336304</v>
       </c>
       <c r="E64">
-        <v>3.431855440139771</v>
+        <v>3.349333763122559</v>
       </c>
       <c r="F64">
-        <v>1087712</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>3.576148757602033</v>
+        <v>3.458779207015192</v>
       </c>
       <c r="H64">
-        <v>3.60893384218216</v>
+        <v>3.537609815597534</v>
       </c>
       <c r="I64">
-        <v>3.703882996241252</v>
+        <v>3.4403910557429</v>
       </c>
       <c r="L64">
-        <v>41.58076510704115</v>
+        <v>38.84980392678417</v>
       </c>
       <c r="M64">
-        <v>42.06574966434933</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>43.83742593963412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>3.433428525924683</v>
+        <v>3.353955745697021</v>
       </c>
       <c r="C65">
-        <v>3.509127616882324</v>
+        <v>3.512983560562134</v>
       </c>
       <c r="D65">
-        <v>3.428440809249878</v>
+        <v>3.321530342102051</v>
       </c>
       <c r="E65">
-        <v>3.434765338897705</v>
+        <v>3.435053825378418</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>11317560</v>
       </c>
       <c r="G65">
-        <v>3.563295719538003</v>
+        <v>3.456622354139121</v>
       </c>
       <c r="H65">
-        <v>3.591941010951996</v>
+        <v>3.530515611171722</v>
       </c>
       <c r="I65">
-        <v>3.679164457321167</v>
+        <v>3.438760050137838</v>
       </c>
       <c r="L65">
-        <v>41.82729639384617</v>
+        <v>48.10278638372767</v>
       </c>
       <c r="M65">
-        <v>42.21524628257088</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>48.84618745613019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>3.438842535018921</v>
+        <v>3.432812690734864</v>
       </c>
       <c r="C66">
-        <v>3.454882621765137</v>
+        <v>3.468533515930176</v>
       </c>
       <c r="D66">
-        <v>3.354565382003784</v>
+        <v>3.395334482192993</v>
       </c>
       <c r="E66">
-        <v>3.37269139289856</v>
+        <v>3.395334482192993</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>455856</v>
       </c>
       <c r="G66">
-        <v>3.545968053479872</v>
+        <v>3.451050729416746</v>
       </c>
       <c r="H66">
-        <v>3.575821113586426</v>
+        <v>3.517610991001129</v>
       </c>
       <c r="I66">
-        <v>3.65397797425588</v>
+        <v>3.440750360488892</v>
       </c>
       <c r="L66">
-        <v>37.9808084147145</v>
+        <v>44.58593612469826</v>
       </c>
       <c r="M66">
-        <v>39.85275361396558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>46.76501214619953</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>3.373301267623901</v>
+        <v>3.396546602249145</v>
       </c>
       <c r="C67">
-        <v>3.439997673034668</v>
+        <v>3.466747045516968</v>
       </c>
       <c r="D67">
-        <v>3.336695909500122</v>
+        <v>3.389842987060547</v>
       </c>
       <c r="E67">
-        <v>3.336695909500122</v>
+        <v>3.45982027053833</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3721536</v>
       </c>
       <c r="G67">
-        <v>3.526943313118076</v>
+        <v>3.451847960427799</v>
       </c>
       <c r="H67">
-        <v>3.561337292194366</v>
+        <v>3.508899593353271</v>
       </c>
       <c r="I67">
-        <v>3.635166557629903</v>
+        <v>3.449608365694682</v>
       </c>
       <c r="L67">
-        <v>35.83121044130095</v>
+        <v>51.11397651965902</v>
       </c>
       <c r="M67">
-        <v>38.50700415595306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>50.45578710251144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>3.341651439666748</v>
+        <v>3.457211017608643</v>
       </c>
       <c r="C68">
-        <v>3.38998556137085</v>
+        <v>3.496018648147583</v>
       </c>
       <c r="D68">
-        <v>3.295994758605957</v>
+        <v>3.358000755310059</v>
       </c>
       <c r="E68">
-        <v>3.360623836517334</v>
+        <v>3.358000755310059</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>7499424</v>
       </c>
       <c r="G68">
-        <v>3.511823360699827</v>
+        <v>3.443316396326186</v>
       </c>
       <c r="H68">
-        <v>3.54436000585556</v>
+        <v>3.488329744338989</v>
       </c>
       <c r="I68">
-        <v>3.61762125492096</v>
+        <v>3.459233601888021</v>
       </c>
       <c r="L68">
-        <v>38.43690250395235</v>
+        <v>42.26887107079386</v>
       </c>
       <c r="M68">
-        <v>39.95844571506866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>45.13489407150338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>3.356442451477051</v>
+        <v>3.355139493942261</v>
       </c>
       <c r="C69">
-        <v>3.364763498306274</v>
+        <v>3.410418510437012</v>
       </c>
       <c r="D69">
-        <v>3.164720296859741</v>
+        <v>3.302593946456909</v>
       </c>
       <c r="E69">
-        <v>3.197184801101685</v>
+        <v>3.302593946456909</v>
       </c>
       <c r="F69">
-        <v>9013056</v>
+        <v>11103584</v>
       </c>
       <c r="G69">
-        <v>3.483219855281814</v>
+        <v>3.43052344633807</v>
       </c>
       <c r="H69">
-        <v>3.509239947795868</v>
+        <v>3.473214864730835</v>
       </c>
       <c r="I69">
-        <v>3.593321132659912</v>
+        <v>3.46197300752004</v>
       </c>
       <c r="L69">
-        <v>29.29565138717718</v>
+        <v>38.21996024487189</v>
       </c>
       <c r="M69">
-        <v>34.04706441694115</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>42.50789489380605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>3.208504199981689</v>
+        <v>3.30638599395752</v>
       </c>
       <c r="C70">
-        <v>3.221322774887085</v>
+        <v>3.400303602218628</v>
       </c>
       <c r="D70">
-        <v>2.946654081344604</v>
+        <v>3.30638599395752</v>
       </c>
       <c r="E70">
-        <v>3.01678991317749</v>
+        <v>3.367278575897217</v>
       </c>
       <c r="F70">
-        <v>36887632</v>
+        <v>442720</v>
       </c>
       <c r="G70">
-        <v>3.440817133272331</v>
+        <v>3.424773912661629</v>
       </c>
       <c r="H70">
-        <v>3.461859285831451</v>
+        <v>3.457475590705871</v>
       </c>
       <c r="I70">
-        <v>3.563151176770528</v>
+        <v>3.466788268089295</v>
       </c>
       <c r="L70">
-        <v>22.61670984927947</v>
+        <v>45.12381934780882</v>
       </c>
       <c r="M70">
-        <v>28.95536707695415</v>
-      </c>
-      <c r="N70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>46.42808661739073</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>3.016381978988647</v>
+        <v>3.370105743408203</v>
       </c>
       <c r="C71">
-        <v>3.197192430496216</v>
+        <v>3.409162282943726</v>
       </c>
       <c r="D71">
-        <v>3.002685070037842</v>
+        <v>3.357338905334473</v>
       </c>
       <c r="E71">
-        <v>3.171175718307495</v>
+        <v>3.363241672515869</v>
       </c>
       <c r="F71">
-        <v>23735616</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>3.416304277366436</v>
+        <v>3.419180072648378</v>
       </c>
       <c r="H71">
-        <v>3.424557363986969</v>
+        <v>3.444676780700684</v>
       </c>
       <c r="I71">
-        <v>3.537353833516439</v>
+        <v>3.47216796875</v>
       </c>
       <c r="L71">
-        <v>36.54521537065212</v>
+        <v>44.77253788563455</v>
       </c>
       <c r="M71">
-        <v>37.56141542606449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>46.21628655296838</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>3.165990352630615</v>
+        <v>3.36190128326416</v>
       </c>
       <c r="C72">
-        <v>3.239838600158691</v>
+        <v>3.40566611289978</v>
       </c>
       <c r="D72">
-        <v>3.120837688446045</v>
+        <v>3.340768575668335</v>
       </c>
       <c r="E72">
-        <v>3.174582958221436</v>
+        <v>3.371332168579102</v>
       </c>
       <c r="F72">
-        <v>10985424</v>
+        <v>3512592</v>
       </c>
       <c r="G72">
-        <v>3.394329611989618</v>
+        <v>3.414830263187535</v>
       </c>
       <c r="H72">
-        <v>3.394761717319489</v>
+        <v>3.434025633335113</v>
       </c>
       <c r="I72">
-        <v>3.514603590965271</v>
+        <v>3.475894769032796</v>
       </c>
       <c r="L72">
-        <v>36.82752978908238</v>
+        <v>45.72517420770547</v>
       </c>
       <c r="M72">
-        <v>37.74066454051111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>46.74067419155616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>3.193253755569458</v>
+        <v>3.368822574615479</v>
       </c>
       <c r="C73">
-        <v>3.284152030944824</v>
+        <v>3.373820304870605</v>
       </c>
       <c r="D73">
-        <v>3.193253755569458</v>
+        <v>3.251422643661499</v>
       </c>
       <c r="E73">
-        <v>3.232290744781494</v>
+        <v>3.251648664474488</v>
       </c>
       <c r="F73">
-        <v>27520400</v>
+        <v>6266656</v>
       </c>
       <c r="G73">
-        <v>3.379598805879788</v>
+        <v>3.39999557239544</v>
       </c>
       <c r="H73">
-        <v>3.370937871932983</v>
+        <v>3.42010612487793</v>
       </c>
       <c r="I73">
-        <v>3.503669476509094</v>
+        <v>3.478421886761983</v>
       </c>
       <c r="L73">
-        <v>41.76429262938574</v>
+        <v>35.52663825428757</v>
       </c>
       <c r="M73">
-        <v>40.83850803209326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>40.45668056337397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>3.23394250869751</v>
+        <v>3.252977848052979</v>
       </c>
       <c r="C74">
-        <v>3.46792459487915</v>
+        <v>3.394930124282837</v>
       </c>
       <c r="D74">
-        <v>3.200844764709473</v>
+        <v>3.245200157165528</v>
       </c>
       <c r="E74">
-        <v>3.46792459487915</v>
+        <v>3.326831817626953</v>
       </c>
       <c r="F74">
-        <v>32158320</v>
+        <v>12060544</v>
       </c>
       <c r="G74">
-        <v>3.387628423061549</v>
+        <v>3.393344321961941</v>
       </c>
       <c r="H74">
-        <v>3.361847591400147</v>
+        <v>3.407385635375976</v>
       </c>
       <c r="I74">
-        <v>3.498113401730855</v>
+        <v>3.479444416364034</v>
       </c>
       <c r="L74">
-        <v>57.14748590468661</v>
+        <v>44.30541836115501</v>
       </c>
       <c r="M74">
-        <v>51.45914089419956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>45.42076469613041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>3.473957538604736</v>
+        <v>3.32090425491333</v>
       </c>
       <c r="C75">
-        <v>3.474025011062622</v>
+        <v>3.333105802536011</v>
       </c>
       <c r="D75">
-        <v>3.386223554611206</v>
+        <v>3.262886524200439</v>
       </c>
       <c r="E75">
-        <v>3.40491509437561</v>
+        <v>3.30580735206604</v>
       </c>
       <c r="F75">
-        <v>11154944</v>
+        <v>311696</v>
       </c>
       <c r="G75">
-        <v>3.389199938635554</v>
+        <v>3.385386415607768</v>
       </c>
       <c r="H75">
-        <v>3.353318166732788</v>
+        <v>3.395231854915619</v>
       </c>
       <c r="I75">
-        <v>3.485789839426677</v>
+        <v>3.470406730969747</v>
       </c>
       <c r="L75">
-        <v>52.94054484045556</v>
+        <v>42.48550147167519</v>
       </c>
       <c r="M75">
-        <v>48.9296316789898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>44.30831485881934</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>3.416874885559082</v>
+        <v>3.302843809127808</v>
       </c>
       <c r="C76">
-        <v>3.494734525680542</v>
+        <v>3.341043472290039</v>
       </c>
       <c r="D76">
-        <v>3.36316704750061</v>
+        <v>3.300814867019653</v>
       </c>
       <c r="E76">
-        <v>3.409918785095215</v>
+        <v>3.318094253540039</v>
       </c>
       <c r="F76">
-        <v>7404576</v>
+        <v>572048</v>
       </c>
       <c r="G76">
-        <v>3.391083470131887</v>
+        <v>3.379268946328883</v>
       </c>
       <c r="H76">
-        <v>3.348870682716369</v>
+        <v>3.380968677997589</v>
       </c>
       <c r="I76">
-        <v>3.476284154256185</v>
+        <v>3.459228976567586</v>
       </c>
       <c r="L76">
-        <v>53.24801733794292</v>
+        <v>43.99790920139689</v>
       </c>
       <c r="M76">
-        <v>49.1434229480143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>45.15373990195157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>3.408448219299316</v>
+        <v>3.332223892211914</v>
       </c>
       <c r="C77">
-        <v>3.534075260162353</v>
+        <v>3.332223892211914</v>
       </c>
       <c r="D77">
-        <v>3.400846004486084</v>
+        <v>3.22565484046936</v>
       </c>
       <c r="E77">
-        <v>3.483983993530273</v>
+        <v>3.261779308319092</v>
       </c>
       <c r="F77">
-        <v>11043072</v>
+        <v>7910368</v>
       </c>
       <c r="G77">
-        <v>3.399528972259013</v>
+        <v>3.368588070146175</v>
       </c>
       <c r="H77">
-        <v>3.346397972106934</v>
+        <v>3.371560001373291</v>
       </c>
       <c r="I77">
-        <v>3.47153787612915</v>
+        <v>3.446820012728373</v>
       </c>
       <c r="L77">
-        <v>57.83557824672089</v>
+        <v>38.74456184860411</v>
       </c>
       <c r="M77">
-        <v>52.32484689964851</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>42.00624804418627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>3.491614818572998</v>
+        <v>3.259325265884399</v>
       </c>
       <c r="C78">
-        <v>3.498742580413818</v>
+        <v>3.30643630027771</v>
       </c>
       <c r="D78">
-        <v>3.329088687896729</v>
+        <v>3.248185634613037</v>
       </c>
       <c r="E78">
-        <v>3.335625171661377</v>
+        <v>3.277533531188965</v>
       </c>
       <c r="F78">
-        <v>7136672</v>
+        <v>7038352</v>
       </c>
       <c r="G78">
-        <v>3.393719535841046</v>
+        <v>3.360310384786428</v>
       </c>
       <c r="H78">
-        <v>3.344446241855621</v>
+        <v>3.363826668262482</v>
       </c>
       <c r="I78">
-        <v>3.459386396408081</v>
+        <v>3.430424539248149</v>
       </c>
       <c r="L78">
-        <v>47.36262383692618</v>
+        <v>40.96303384596904</v>
       </c>
       <c r="M78">
-        <v>46.10340270255845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>43.19909343818885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>3.333585023880005</v>
+        <v>3.276344060897827</v>
       </c>
       <c r="C79">
-        <v>3.357598304748535</v>
+        <v>3.301249504089355</v>
       </c>
       <c r="D79">
-        <v>3.163764953613281</v>
+        <v>3.190180778503418</v>
       </c>
       <c r="E79">
-        <v>3.194080114364624</v>
+        <v>3.238801717758179</v>
       </c>
       <c r="F79">
-        <v>7683808</v>
+        <v>8680400</v>
       </c>
       <c r="G79">
-        <v>3.375570497525008</v>
+        <v>3.349264142329314</v>
       </c>
       <c r="H79">
-        <v>3.340199780464173</v>
+        <v>3.351934409141541</v>
       </c>
       <c r="I79">
-        <v>3.435869534810384</v>
+        <v>3.418221545219422</v>
       </c>
       <c r="L79">
-        <v>39.65521651143332</v>
+        <v>37.23340649564932</v>
       </c>
       <c r="M79">
-        <v>41.08430958614272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>40.96807071681088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>3.189939260482788</v>
+        <v>3.241620063781738</v>
       </c>
       <c r="C80">
-        <v>3.1945960521698</v>
+        <v>3.285011291503906</v>
       </c>
       <c r="D80">
-        <v>3.050355434417725</v>
+        <v>3.23194146156311</v>
       </c>
       <c r="E80">
-        <v>3.069243669509888</v>
+        <v>3.240173816680908</v>
       </c>
       <c r="F80">
-        <v>5985056</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>3.347722604069087</v>
+        <v>3.339346839997641</v>
       </c>
       <c r="H80">
-        <v>3.326686501502991</v>
+        <v>3.344680750370026</v>
       </c>
       <c r="I80">
-        <v>3.40603088537852</v>
+        <v>3.403491870562235</v>
       </c>
       <c r="L80">
-        <v>34.1424844584995</v>
+        <v>37.46034017569887</v>
       </c>
       <c r="M80">
-        <v>37.23425964709367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>41.08415241845551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>3.080460071563721</v>
+        <v>3.244587182998657</v>
       </c>
       <c r="C81">
-        <v>3.220411777496338</v>
+        <v>3.299723386764526</v>
       </c>
       <c r="D81">
-        <v>3.037787437438965</v>
+        <v>3.233737707138061</v>
       </c>
       <c r="E81">
-        <v>3.220411777496338</v>
+        <v>3.233737707138061</v>
       </c>
       <c r="F81">
-        <v>31222624</v>
+        <v>5563936</v>
       </c>
       <c r="G81">
-        <v>3.336148892562473</v>
+        <v>3.329746009737679</v>
       </c>
       <c r="H81">
-        <v>3.317040097713471</v>
+        <v>3.334853816032409</v>
       </c>
       <c r="I81">
-        <v>3.38280413945516</v>
+        <v>3.39064253171285</v>
       </c>
       <c r="L81">
-        <v>44.62877726735565</v>
+        <v>36.7590065073536</v>
       </c>
       <c r="M81">
-        <v>44.0693422167797</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>40.68005966978398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>3.224968433380127</v>
+        <v>3.235607147216797</v>
       </c>
       <c r="C82">
-        <v>3.248535871505737</v>
+        <v>3.281690359115601</v>
       </c>
       <c r="D82">
-        <v>3.201923131942749</v>
+        <v>3.228834629058838</v>
       </c>
       <c r="E82">
-        <v>3.22282075881958</v>
+        <v>3.239160060882568</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1871472</v>
       </c>
       <c r="G82">
-        <v>3.325846334949483</v>
+        <v>3.321510923478123</v>
       </c>
       <c r="H82">
-        <v>3.300422084331513</v>
+        <v>3.325021970272064</v>
       </c>
       <c r="I82">
-        <v>3.364548301696777</v>
+        <v>3.379136029879252</v>
       </c>
       <c r="L82">
-        <v>44.7863890083458</v>
+        <v>37.86163630821027</v>
       </c>
       <c r="M82">
-        <v>44.1736743513421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>41.20474402389218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>3.216983079910278</v>
+        <v>3.234586477279663</v>
       </c>
       <c r="C83">
-        <v>3.273611783981323</v>
+        <v>3.250602245330811</v>
       </c>
       <c r="D83">
-        <v>3.189045429229736</v>
+        <v>3.167702674865723</v>
       </c>
       <c r="E83">
-        <v>3.201850652694702</v>
+        <v>3.167702674865723</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>877168</v>
       </c>
       <c r="G83">
-        <v>3.314574000199048</v>
+        <v>3.30752835542245</v>
       </c>
       <c r="H83">
-        <v>3.286971533298492</v>
+        <v>3.313163018226624</v>
       </c>
       <c r="I83">
-        <v>3.347651068369548</v>
+        <v>3.367058157920837</v>
       </c>
       <c r="L83">
-        <v>43.57179911526021</v>
+        <v>30.08498477318711</v>
       </c>
       <c r="M83">
-        <v>43.41447711347277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>36.60925003468271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>3.20264720916748</v>
+        <v>3.171902179718018</v>
       </c>
       <c r="C84">
-        <v>3.306189060211182</v>
+        <v>3.3012855052948</v>
       </c>
       <c r="D84">
-        <v>3.179040908813477</v>
+        <v>3.171902179718018</v>
       </c>
       <c r="E84">
-        <v>3.259528160095215</v>
+        <v>3.284318923950196</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6889584</v>
       </c>
       <c r="G84">
-        <v>3.309569832916881</v>
+        <v>3.30541840710679</v>
       </c>
       <c r="H84">
-        <v>3.278355169296264</v>
+        <v>3.309912276268006</v>
       </c>
       <c r="I84">
-        <v>3.334644333521525</v>
+        <v>3.35716073513031</v>
       </c>
       <c r="L84">
-        <v>47.94040417721687</v>
+        <v>49.23029362969376</v>
       </c>
       <c r="M84">
-        <v>46.15556197632782</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>46.99821145546699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>3.262264966964722</v>
+        <v>3.290692806243896</v>
       </c>
       <c r="C85">
-        <v>3.262264966964722</v>
+        <v>3.360969543457031</v>
       </c>
       <c r="D85">
-        <v>3.111872911453247</v>
+        <v>3.262856721878052</v>
       </c>
       <c r="E85">
-        <v>3.175835132598877</v>
+        <v>3.347223281860352</v>
       </c>
       <c r="F85">
-        <v>6340816</v>
+        <v>15732240</v>
       </c>
       <c r="G85">
-        <v>3.297412132887972</v>
+        <v>3.309218850266205</v>
       </c>
       <c r="H85">
-        <v>3.265408658981323</v>
+        <v>3.305520749092102</v>
       </c>
       <c r="I85">
-        <v>3.321322051684062</v>
+        <v>3.350438745816549</v>
       </c>
       <c r="L85">
-        <v>42.56144484674135</v>
+        <v>56.46476784018962</v>
       </c>
       <c r="M85">
-        <v>42.90754498551414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>51.60553087568822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>3.218111515045166</v>
+        <v>3.31827163696289</v>
       </c>
       <c r="C86">
-        <v>3.334361791610718</v>
+        <v>3.322985410690308</v>
       </c>
       <c r="D86">
-        <v>3.202250719070435</v>
+        <v>3.262439966201782</v>
       </c>
       <c r="E86">
-        <v>3.29615592956543</v>
+        <v>3.293049573898315</v>
       </c>
       <c r="F86">
-        <v>7465760</v>
+        <v>3771568</v>
       </c>
       <c r="G86">
-        <v>3.297297932585923</v>
+        <v>3.307748916050942</v>
       </c>
       <c r="H86">
-        <v>3.261581885814667</v>
+        <v>3.300406503677368</v>
       </c>
       <c r="I86">
-        <v>3.314564967155456</v>
+        <v>3.340095138549805</v>
       </c>
       <c r="L86">
-        <v>51.38374819057884</v>
+        <v>49.61500255446413</v>
       </c>
       <c r="M86">
-        <v>48.51669171550118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>47.75542211924935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>3.289589405059814</v>
+        <v>3.295703649520874</v>
       </c>
       <c r="C87">
-        <v>3.671242952346802</v>
+        <v>3.337846755981445</v>
       </c>
       <c r="D87">
-        <v>3.209935903549194</v>
+        <v>3.264560461044312</v>
       </c>
       <c r="E87">
-        <v>3.576937913894653</v>
+        <v>3.294820308685303</v>
       </c>
       <c r="F87">
-        <v>44148128</v>
+        <v>3573792</v>
       </c>
       <c r="G87">
-        <v>3.322719749068535</v>
+        <v>3.306573588108611</v>
       </c>
       <c r="H87">
-        <v>3.273593986034393</v>
+        <v>3.292156505584717</v>
       </c>
       <c r="I87">
-        <v>3.316014957427979</v>
+        <v>3.334924054145813</v>
       </c>
       <c r="L87">
-        <v>65.35419274320842</v>
+        <v>49.838763278344</v>
       </c>
       <c r="M87">
-        <v>58.71114884589304</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>47.89226700362269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>3.594749689102173</v>
+        <v>3.304763078689575</v>
       </c>
       <c r="C88">
-        <v>3.658423185348511</v>
+        <v>3.304956436157227</v>
       </c>
       <c r="D88">
-        <v>3.527727127075196</v>
+        <v>3.216539144515991</v>
       </c>
       <c r="E88">
-        <v>3.653426885604858</v>
+        <v>3.263825654983521</v>
       </c>
       <c r="F88">
-        <v>24966912</v>
+        <v>1073776</v>
       </c>
       <c r="G88">
-        <v>3.3527840342082</v>
+        <v>3.302687412369966</v>
       </c>
       <c r="H88">
-        <v>3.288234138488769</v>
+        <v>3.28744775056839</v>
       </c>
       <c r="I88">
-        <v>3.325307194391887</v>
+        <v>3.329311569531759</v>
       </c>
       <c r="L88">
-        <v>68.15837408314998</v>
+        <v>45.83078206492927</v>
       </c>
       <c r="M88">
-        <v>60.977992325932</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>45.63885781027427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>3.653037548065186</v>
+        <v>3.258517503738404</v>
       </c>
       <c r="C89">
-        <v>3.660433292388916</v>
+        <v>3.349483489990234</v>
       </c>
       <c r="D89">
-        <v>3.518009662628174</v>
+        <v>3.258517503738404</v>
       </c>
       <c r="E89">
-        <v>3.634048223495483</v>
+        <v>3.335970640182495</v>
       </c>
       <c r="F89">
-        <v>17029376</v>
+        <v>3674592</v>
       </c>
       <c r="G89">
-        <v>3.37835350596159</v>
+        <v>3.305713160352923</v>
       </c>
       <c r="H89">
-        <v>3.310077309608459</v>
+        <v>3.289116585254669</v>
       </c>
       <c r="I89">
-        <v>3.337141823768616</v>
+        <v>3.324622360865275</v>
       </c>
       <c r="L89">
-        <v>66.6214687992945</v>
+        <v>55.2537362770111</v>
       </c>
       <c r="M89">
-        <v>60.07805094629438</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>51.37403622152264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>3.624548196792603</v>
+        <v>3.338357925415039</v>
       </c>
       <c r="C90">
-        <v>3.77145266532898</v>
+        <v>3.354224920272827</v>
       </c>
       <c r="D90">
-        <v>3.598501205444336</v>
+        <v>3.24324917793274</v>
       </c>
       <c r="E90">
-        <v>3.769397735595703</v>
+        <v>3.24324917793274</v>
       </c>
       <c r="F90">
-        <v>35899936</v>
+        <v>9915440</v>
       </c>
       <c r="G90">
-        <v>3.413902981382873</v>
+        <v>3.300034616496543</v>
       </c>
       <c r="H90">
-        <v>3.34770770072937</v>
+        <v>3.282915115356445</v>
       </c>
       <c r="I90">
-        <v>3.351471439997355</v>
+        <v>3.319889100392659</v>
       </c>
       <c r="L90">
-        <v>71.64533268869685</v>
+        <v>44.14953562224665</v>
       </c>
       <c r="M90">
-        <v>64.06694771411139</v>
-      </c>
-      <c r="O90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>44.82815617753153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>3.751198768615722</v>
+        <v>3.244556188583374</v>
       </c>
       <c r="C91">
-        <v>3.812752246856689</v>
+        <v>3.244556188583374</v>
       </c>
       <c r="D91">
-        <v>3.604891538619995</v>
+        <v>3.181456327438354</v>
       </c>
       <c r="E91">
-        <v>3.604891538619995</v>
+        <v>3.206738948822021</v>
       </c>
       <c r="F91">
-        <v>46966816</v>
+        <v>31968</v>
       </c>
       <c r="G91">
-        <v>3.431265577495338</v>
+        <v>3.291553192162495</v>
       </c>
       <c r="H91">
-        <v>3.369393491744995</v>
+        <v>3.275089979171753</v>
       </c>
       <c r="I91">
-        <v>3.35785649617513</v>
+        <v>3.312437852223714</v>
       </c>
       <c r="L91">
-        <v>59.41718196106234</v>
+        <v>40.54042070619597</v>
       </c>
       <c r="M91">
-        <v>56.65715475571318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>42.53020498416662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>3.610428333282471</v>
+        <v>3.20245099067688</v>
       </c>
       <c r="C92">
-        <v>3.682064056396485</v>
+        <v>3.20245099067688</v>
       </c>
       <c r="D92">
-        <v>3.54000997543335</v>
+        <v>3.030471801757812</v>
       </c>
       <c r="E92">
-        <v>3.682064056396485</v>
+        <v>3.030471801757812</v>
       </c>
       <c r="F92">
-        <v>15820512</v>
+        <v>15757760</v>
       </c>
       <c r="G92">
-        <v>3.454065439213624</v>
+        <v>3.267818520307524</v>
       </c>
       <c r="H92">
-        <v>3.394767546653747</v>
+        <v>3.258046960830689</v>
       </c>
       <c r="I92">
-        <v>3.362085930506388</v>
+        <v>3.298927013079326</v>
       </c>
       <c r="L92">
-        <v>62.7706293957347</v>
+        <v>28.07506490732703</v>
       </c>
       <c r="M92">
-        <v>59.04987727727211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>33.58033951312541</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>3.67951226234436</v>
+        <v>3.022028684616089</v>
       </c>
       <c r="C93">
-        <v>3.752588510513306</v>
+        <v>3.086212873458862</v>
       </c>
       <c r="D93">
-        <v>3.571230173110962</v>
+        <v>3.004645586013794</v>
       </c>
       <c r="E93">
-        <v>3.619217872619629</v>
+        <v>3.073197364807129</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9976384</v>
       </c>
       <c r="G93">
-        <v>3.469079296795988</v>
+        <v>3.250125687989306</v>
       </c>
       <c r="H93">
-        <v>3.414113903045654</v>
+        <v>3.24912439584732</v>
       </c>
       <c r="I93">
-        <v>3.367031137148539</v>
+        <v>3.287870868047079</v>
       </c>
       <c r="L93">
-        <v>58.35307587718566</v>
+        <v>33.63919192362621</v>
       </c>
       <c r="M93">
-        <v>56.32302376840848</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>37.03887784867408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>3.615717649459839</v>
+        <v>3.075924873352051</v>
       </c>
       <c r="C94">
-        <v>3.646394968032837</v>
+        <v>3.082350254058838</v>
       </c>
       <c r="D94">
-        <v>3.532979488372803</v>
+        <v>2.959724187850952</v>
       </c>
       <c r="E94">
-        <v>3.584355115890503</v>
+        <v>2.994279623031616</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>11800992</v>
       </c>
       <c r="G94">
-        <v>3.479558916713671</v>
+        <v>3.226866954811334</v>
       </c>
       <c r="H94">
-        <v>3.419935429096222</v>
+        <v>3.232496786117554</v>
       </c>
       <c r="I94">
-        <v>3.372114459673563</v>
+        <v>3.276035730044047</v>
       </c>
       <c r="L94">
-        <v>55.89804319410706</v>
+        <v>28.98051093944564</v>
       </c>
       <c r="M94">
-        <v>54.81093422408586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>33.56253764603414</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>3.560369729995728</v>
+        <v>3.002307176589966</v>
       </c>
       <c r="C95">
-        <v>3.621150732040405</v>
+        <v>3.053345203399658</v>
       </c>
       <c r="D95">
-        <v>3.526227712631226</v>
+        <v>3.001291275024414</v>
       </c>
       <c r="E95">
-        <v>3.530038833618164</v>
+        <v>3.019725322723389</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1750640</v>
       </c>
       <c r="G95">
-        <v>3.484148000068625</v>
+        <v>3.208035897348794</v>
       </c>
       <c r="H95">
-        <v>3.426191616058349</v>
+        <v>3.218192684650421</v>
       </c>
       <c r="I95">
-        <v>3.375290242830912</v>
+        <v>3.262191446622213</v>
       </c>
       <c r="L95">
-        <v>52.05910552885778</v>
+        <v>32.37755036120081</v>
       </c>
       <c r="M95">
-        <v>52.44840688092013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>35.65941900963638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>3.533428907394409</v>
+        <v>3.018874645233154</v>
       </c>
       <c r="C96">
-        <v>3.591485261917114</v>
+        <v>3.049735069274902</v>
       </c>
       <c r="D96">
-        <v>3.497859001159668</v>
+        <v>2.985841751098633</v>
       </c>
       <c r="E96">
-        <v>3.581241607666016</v>
+        <v>3.033521890640259</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1267584</v>
       </c>
       <c r="G96">
-        <v>3.492974691668388</v>
+        <v>3.192170987648018</v>
       </c>
       <c r="H96">
-        <v>3.434757757186889</v>
+        <v>3.203964066505432</v>
       </c>
       <c r="I96">
-        <v>3.382241916656494</v>
+        <v>3.250131026903788</v>
       </c>
       <c r="L96">
-        <v>55.31375550781775</v>
+        <v>34.29459972862396</v>
       </c>
       <c r="M96">
-        <v>54.44193799332401</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>36.82369619350379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>3.576758146286011</v>
+        <v>3.032090425491333</v>
       </c>
       <c r="C97">
-        <v>3.669027805328369</v>
+        <v>3.032720804214477</v>
       </c>
       <c r="D97">
-        <v>3.529762029647827</v>
+        <v>2.909913301467896</v>
       </c>
       <c r="E97">
-        <v>3.548882961273193</v>
+        <v>2.92220401763916</v>
       </c>
       <c r="F97">
-        <v>2828096</v>
+        <v>10828176</v>
       </c>
       <c r="G97">
-        <v>3.498057261632461</v>
+        <v>3.167628535829031</v>
       </c>
       <c r="H97">
-        <v>3.438002705574036</v>
+        <v>3.186985301971435</v>
       </c>
       <c r="I97">
-        <v>3.389314818382263</v>
+        <v>3.232210485140483</v>
       </c>
       <c r="L97">
-        <v>52.76687309984709</v>
+        <v>27.27575625630372</v>
       </c>
       <c r="M97">
-        <v>52.93166640669296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>31.82040647973617</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>3.527576446533203</v>
+        <v>2.914111137390137</v>
       </c>
       <c r="C98">
-        <v>3.617455720901489</v>
+        <v>2.973350763320923</v>
       </c>
       <c r="D98">
-        <v>3.406130075454712</v>
+        <v>2.800168037414551</v>
       </c>
       <c r="E98">
-        <v>3.603357791900634</v>
+        <v>2.969398021697998</v>
       </c>
       <c r="F98">
-        <v>27759168</v>
+        <v>13233920</v>
       </c>
       <c r="G98">
-        <v>3.507630037111386</v>
+        <v>3.149607579998936</v>
       </c>
       <c r="H98">
-        <v>3.451389336585998</v>
+        <v>3.171578526496887</v>
       </c>
       <c r="I98">
-        <v>3.397405950228373</v>
+        <v>3.219257060686747</v>
       </c>
       <c r="L98">
-        <v>56.55539390580165</v>
+        <v>33.7433636894088</v>
       </c>
       <c r="M98">
-        <v>55.18554154901291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>35.80285867587222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>3.598051071166992</v>
+        <v>2.970523118972778</v>
       </c>
       <c r="C99">
-        <v>3.635585784912109</v>
+        <v>3.002268552780152</v>
       </c>
       <c r="D99">
-        <v>3.340725183486938</v>
+        <v>2.947621583938598</v>
       </c>
       <c r="E99">
-        <v>3.449952840805054</v>
+        <v>3.002268552780152</v>
       </c>
       <c r="F99">
-        <v>15810512</v>
+        <v>622816</v>
       </c>
       <c r="G99">
-        <v>3.502386655628992</v>
+        <v>3.136213122979047</v>
       </c>
       <c r="H99">
-        <v>3.46418297290802</v>
+        <v>3.159751868247986</v>
       </c>
       <c r="I99">
-        <v>3.405831551551819</v>
+        <v>3.209246214230855</v>
       </c>
       <c r="L99">
-        <v>45.09609755526824</v>
+        <v>38.05965246951275</v>
       </c>
       <c r="M99">
-        <v>48.18768177089449</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>38.4974556949097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>3.448808193206787</v>
+        <v>3.005245208740234</v>
       </c>
       <c r="C100">
-        <v>3.46757698059082</v>
+        <v>3.005245208740234</v>
       </c>
       <c r="D100">
-        <v>3.314171552658081</v>
+        <v>2.931080818176269</v>
       </c>
       <c r="E100">
-        <v>3.432200193405152</v>
+        <v>2.962817430496216</v>
       </c>
       <c r="F100">
-        <v>1574016</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>3.496006068154097</v>
+        <v>3.12044987820788</v>
       </c>
       <c r="H100">
-        <v>3.482330799102783</v>
+        <v>3.145884048938751</v>
       </c>
       <c r="I100">
-        <v>3.419678560892741</v>
+        <v>3.195764176050822</v>
       </c>
       <c r="L100">
-        <v>43.93707643963026</v>
+        <v>34.98257749630388</v>
       </c>
       <c r="M100">
-        <v>47.43800377040009</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>36.51637087804865</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>3.416702270507812</v>
+        <v>2.963580131530762</v>
       </c>
       <c r="C101">
-        <v>3.512893915176392</v>
+        <v>2.968621015548706</v>
       </c>
       <c r="D101">
-        <v>3.398483514785767</v>
+        <v>2.933690309524536</v>
       </c>
       <c r="E101">
-        <v>3.476646900177002</v>
+        <v>2.953073501586914</v>
       </c>
       <c r="F101">
-        <v>1037408</v>
+        <v>40656</v>
       </c>
       <c r="G101">
-        <v>3.494246143792543</v>
+        <v>3.105233843969611</v>
       </c>
       <c r="H101">
-        <v>3.495142555236816</v>
+        <v>3.131850838661194</v>
       </c>
       <c r="I101">
-        <v>3.429860933621725</v>
+        <v>3.182091903686524</v>
       </c>
       <c r="L101">
-        <v>47.7215386020498</v>
+        <v>34.21397107155499</v>
       </c>
       <c r="M101">
-        <v>49.55405481881811</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>36.02329483497408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>3.474863767623901</v>
+        <v>2.948365688323975</v>
       </c>
       <c r="C102">
-        <v>3.474863767623901</v>
+        <v>2.951962232589722</v>
       </c>
       <c r="D102">
-        <v>3.371263980865479</v>
+        <v>2.89754605293274</v>
       </c>
       <c r="E102">
-        <v>3.385246992111206</v>
+        <v>2.934773683547974</v>
       </c>
       <c r="F102">
-        <v>3422544</v>
+        <v>96768</v>
       </c>
       <c r="G102">
-        <v>3.484337130003331</v>
+        <v>3.089737465749462</v>
       </c>
       <c r="H102">
-        <v>3.503263866901398</v>
+        <v>3.116631519794464</v>
       </c>
       <c r="I102">
-        <v>3.436883068084717</v>
+        <v>3.167539954185486</v>
       </c>
       <c r="L102">
-        <v>41.27567253303118</v>
+        <v>32.69617193605541</v>
       </c>
       <c r="M102">
-        <v>45.49771157551166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>35.0656477164712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>3.393402338027954</v>
+        <v>2.933256149291992</v>
       </c>
       <c r="C103">
-        <v>3.451607227325439</v>
+        <v>2.933256149291992</v>
       </c>
       <c r="D103">
-        <v>3.374805927276612</v>
+        <v>2.87648868560791</v>
       </c>
       <c r="E103">
-        <v>3.430276393890381</v>
+        <v>2.90548300743103</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>976176</v>
       </c>
       <c r="G103">
-        <v>3.479422517629426</v>
+        <v>3.072987060447786</v>
       </c>
       <c r="H103">
-        <v>3.514685153961182</v>
+        <v>3.103520536422729</v>
       </c>
       <c r="I103">
-        <v>3.44348258972168</v>
+        <v>3.156001098950704</v>
       </c>
       <c r="L103">
-        <v>45.36577832658372</v>
+        <v>30.27755666572426</v>
       </c>
       <c r="M103">
-        <v>47.76622831704589</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>33.52921763349141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>3.436715841293335</v>
+        <v>2.896909475326538</v>
       </c>
       <c r="C104">
-        <v>3.440098524093628</v>
+        <v>2.918766498565674</v>
       </c>
       <c r="D104">
-        <v>3.381789922714233</v>
+        <v>2.885941743850708</v>
       </c>
       <c r="E104">
-        <v>3.435796976089477</v>
+        <v>2.916893482208252</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>3.475456559307613</v>
+        <v>3.058796735153283</v>
       </c>
       <c r="H104">
-        <v>3.523498594760895</v>
+        <v>3.085149264335632</v>
       </c>
       <c r="I104">
-        <v>3.442411669095357</v>
+        <v>3.142336487770081</v>
       </c>
       <c r="L104">
-        <v>45.88561918255009</v>
+        <v>32.46689773289059</v>
       </c>
       <c r="M104">
-        <v>48.05170584591251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>34.7290209706514</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>3.426119089126587</v>
+        <v>2.913715839385986</v>
       </c>
       <c r="C105">
-        <v>3.438628196716309</v>
+        <v>2.955350637435913</v>
       </c>
       <c r="D105">
-        <v>3.396551847457886</v>
+        <v>2.913715839385986</v>
       </c>
       <c r="E105">
-        <v>3.404881715774536</v>
+        <v>2.954038143157959</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>3.469040664440969</v>
+        <v>3.049273226790072</v>
       </c>
       <c r="H105">
-        <v>3.534950923919678</v>
+        <v>3.065490007400513</v>
       </c>
       <c r="I105">
-        <v>3.442410556475322</v>
+        <v>3.130610847473144</v>
       </c>
       <c r="L105">
-        <v>43.29060433683316</v>
+        <v>39.43202541493321</v>
       </c>
       <c r="M105">
-        <v>46.51843681027684</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>38.61347251709066</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>3.401586055755615</v>
+        <v>2.96310019493103</v>
       </c>
       <c r="C106">
-        <v>3.411269187927246</v>
+        <v>3.037451505661011</v>
       </c>
       <c r="D106">
-        <v>3.344300985336304</v>
+        <v>2.960394382476806</v>
       </c>
       <c r="E106">
-        <v>3.349333763122559</v>
+        <v>3.02685809135437</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3661936</v>
       </c>
       <c r="G106">
-        <v>3.458158218866568</v>
+        <v>3.047235487205008</v>
       </c>
       <c r="H106">
-        <v>3.537609815597534</v>
+        <v>3.052180433273315</v>
       </c>
       <c r="I106">
-        <v>3.4403910557429</v>
+        <v>3.120902975400289</v>
       </c>
       <c r="L106">
-        <v>38.84945063707036</v>
+        <v>50.65613788422353</v>
       </c>
       <c r="M106">
-        <v>43.81326410312074</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>45.46550660931836</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>3.353955745697021</v>
+        <v>3.030274629592896</v>
       </c>
       <c r="C107">
-        <v>3.512983560562134</v>
+        <v>3.030274629592896</v>
       </c>
       <c r="D107">
-        <v>3.321530342102051</v>
+        <v>2.970597505569458</v>
       </c>
       <c r="E107">
-        <v>3.435053825378418</v>
+        <v>2.985441207885742</v>
       </c>
       <c r="F107">
-        <v>11317560</v>
+        <v>1567784</v>
       </c>
       <c r="G107">
-        <v>3.456057819458554</v>
+        <v>3.041617825448711</v>
       </c>
       <c r="H107">
-        <v>3.530515611171722</v>
+        <v>3.036711478233337</v>
       </c>
       <c r="I107">
-        <v>3.438760050137838</v>
+        <v>3.111691705385844</v>
       </c>
       <c r="L107">
-        <v>48.09401653477571</v>
+        <v>45.28636415098686</v>
       </c>
       <c r="M107">
-        <v>48.76477393770359</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>42.55600229399145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>3.432812690734864</v>
+        <v>2.986093282699585</v>
       </c>
       <c r="C108">
-        <v>3.468533515930176</v>
+        <v>3.007007360458374</v>
       </c>
       <c r="D108">
-        <v>3.395334482192993</v>
+        <v>2.97861385345459</v>
       </c>
       <c r="E108">
-        <v>3.395334482192993</v>
+        <v>2.994946241378784</v>
       </c>
       <c r="F108">
-        <v>455856</v>
+        <v>648216</v>
       </c>
       <c r="G108">
-        <v>3.450537516070776</v>
+        <v>3.037374954169627</v>
       </c>
       <c r="H108">
-        <v>3.517610991001129</v>
+        <v>3.023267507553101</v>
       </c>
       <c r="I108">
-        <v>3.440750360488892</v>
+        <v>3.102272129058838</v>
       </c>
       <c r="L108">
-        <v>44.58079098684033</v>
+        <v>46.74390909088392</v>
       </c>
       <c r="M108">
-        <v>46.71066189785746</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>43.45039341213946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>3.396546602249145</v>
+        <v>2.994137048721313</v>
       </c>
       <c r="C109">
-        <v>3.466747045516968</v>
+        <v>3.003444910049438</v>
       </c>
       <c r="D109">
-        <v>3.389842987060547</v>
+        <v>2.953901290893555</v>
       </c>
       <c r="E109">
-        <v>3.45982027053833</v>
+        <v>2.961115598678589</v>
       </c>
       <c r="F109">
-        <v>3721536</v>
+        <v>2843648</v>
       </c>
       <c r="G109">
-        <v>3.451381402840553</v>
+        <v>3.030442285488623</v>
       </c>
       <c r="H109">
-        <v>3.508899593353271</v>
+        <v>3.004524755477905</v>
       </c>
       <c r="I109">
-        <v>3.449608365694682</v>
+        <v>3.093015925089518</v>
       </c>
       <c r="L109">
-        <v>51.10454998899613</v>
+        <v>42.23840856706333</v>
       </c>
       <c r="M109">
-        <v>50.36612758399623</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>41.00334059899727</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>3.457211017608643</v>
+        <v>2.961137771606445</v>
       </c>
       <c r="C110">
-        <v>3.496018648147583</v>
+        <v>2.982812643051147</v>
       </c>
       <c r="D110">
-        <v>3.358000755310059</v>
+        <v>2.940927743911743</v>
       </c>
       <c r="E110">
-        <v>3.358000755310059</v>
+        <v>2.973034143447876</v>
       </c>
       <c r="F110">
-        <v>7499424</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>3.442892253065054</v>
+        <v>3.025223363484919</v>
       </c>
       <c r="H110">
-        <v>3.488329744338989</v>
+        <v>2.991014003753662</v>
       </c>
       <c r="I110">
-        <v>3.459233601888021</v>
+        <v>3.084111269315084</v>
       </c>
       <c r="L110">
-        <v>42.26655128640529</v>
+        <v>44.3638096916003</v>
       </c>
       <c r="M110">
-        <v>45.10500071734229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>42.23756127469618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>3.355139493942261</v>
+        <v>2.976489782333374</v>
       </c>
       <c r="C111">
-        <v>3.410418510437012</v>
+        <v>2.977857351303101</v>
       </c>
       <c r="D111">
-        <v>3.302593946456909</v>
+        <v>2.927458524703979</v>
       </c>
       <c r="E111">
-        <v>3.302593946456909</v>
+        <v>2.927796363830566</v>
       </c>
       <c r="F111">
-        <v>11103584</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>3.430137861555222</v>
+        <v>3.016366363516342</v>
       </c>
       <c r="H111">
-        <v>3.473214864730835</v>
+        <v>2.977066874504089</v>
       </c>
       <c r="I111">
-        <v>3.46197300752004</v>
+        <v>3.073913224538167</v>
       </c>
       <c r="L111">
-        <v>38.22012946432136</v>
+        <v>38.33984186323034</v>
       </c>
       <c r="M111">
-        <v>42.50317398128288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>38.91025905039389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>3.30638599395752</v>
+        <v>2.921205043792725</v>
       </c>
       <c r="C112">
-        <v>3.400303602218628</v>
+        <v>2.94050407409668</v>
       </c>
       <c r="D112">
-        <v>3.30638599395752</v>
+        <v>2.851421117782593</v>
       </c>
       <c r="E112">
-        <v>3.367278575897217</v>
+        <v>2.884779453277588</v>
       </c>
       <c r="F112">
-        <v>442720</v>
+        <v>5934808</v>
       </c>
       <c r="G112">
-        <v>3.424423381040858</v>
+        <v>3.004403917131</v>
       </c>
       <c r="H112">
-        <v>3.457475590705871</v>
+        <v>2.969782257080078</v>
       </c>
       <c r="I112">
-        <v>3.466788268089295</v>
+        <v>3.062100537618001</v>
       </c>
       <c r="L112">
-        <v>45.12053604617607</v>
+        <v>33.47699360559331</v>
       </c>
       <c r="M112">
-        <v>46.39106011767944</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>36.00565616361485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>3.370105743408203</v>
+        <v>2.88464903831482</v>
       </c>
       <c r="C113">
-        <v>3.409162282943726</v>
+        <v>2.922693729400635</v>
       </c>
       <c r="D113">
-        <v>3.357338905334473</v>
+        <v>2.857295989990234</v>
       </c>
       <c r="E113">
-        <v>3.363241672515869</v>
+        <v>2.88884425163269</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>4229072</v>
       </c>
       <c r="G113">
-        <v>3.418861407538586</v>
+        <v>2.99389849299479</v>
       </c>
       <c r="H113">
-        <v>3.444676780700684</v>
+        <v>2.960564601421356</v>
       </c>
       <c r="I113">
-        <v>3.47216796875</v>
+        <v>3.052805256843567</v>
       </c>
       <c r="L113">
-        <v>44.76945348106326</v>
+        <v>34.36200330511194</v>
       </c>
       <c r="M113">
-        <v>46.18118224333957</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>36.48811704308693</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>3.36190128326416</v>
+        <v>2.886718988418579</v>
       </c>
       <c r="C114">
-        <v>3.40566611289978</v>
+        <v>2.886718988418579</v>
       </c>
       <c r="D114">
-        <v>3.340768575668335</v>
+        <v>2.780930757522583</v>
       </c>
       <c r="E114">
-        <v>3.371332168579102</v>
+        <v>2.798573970794678</v>
       </c>
       <c r="F114">
-        <v>3512592</v>
+        <v>16899800</v>
       </c>
       <c r="G114">
-        <v>3.414540567633178</v>
+        <v>2.976141718249325</v>
       </c>
       <c r="H114">
-        <v>3.434025633335113</v>
+        <v>2.950779318809509</v>
       </c>
       <c r="I114">
-        <v>3.475894769032796</v>
+        <v>3.036613758405049</v>
       </c>
       <c r="L114">
-        <v>45.72168098110517</v>
+        <v>25.78994838068507</v>
       </c>
       <c r="M114">
-        <v>46.70160700714413</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>30.91410761475511</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>3.368822574615479</v>
+        <v>2.794795751571656</v>
       </c>
       <c r="C115">
-        <v>3.373820304870605</v>
+        <v>2.799160957336426</v>
       </c>
       <c r="D115">
-        <v>3.251422643661499</v>
+        <v>2.668008804321289</v>
       </c>
       <c r="E115">
-        <v>3.251648664474488</v>
+        <v>2.706004858016968</v>
       </c>
       <c r="F115">
-        <v>6266656</v>
+        <v>23646288</v>
       </c>
       <c r="G115">
-        <v>3.39973221280057</v>
+        <v>2.951583821864566</v>
       </c>
       <c r="H115">
-        <v>3.42010612487793</v>
+        <v>2.935093295574188</v>
       </c>
       <c r="I115">
-        <v>3.478421886761983</v>
+        <v>3.015239810943604</v>
       </c>
       <c r="L115">
-        <v>35.52776711165076</v>
+        <v>20.02646963002865</v>
       </c>
       <c r="M115">
-        <v>40.46750308797554</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>26.45164207655581</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>3.252977848052979</v>
+        <v>2.703314065933228</v>
       </c>
       <c r="C116">
-        <v>3.394930124282837</v>
+        <v>2.709086894989014</v>
       </c>
       <c r="D116">
-        <v>3.245200157165528</v>
+        <v>2.605871677398682</v>
       </c>
       <c r="E116">
-        <v>3.326831817626953</v>
+        <v>2.62103796005249</v>
       </c>
       <c r="F116">
-        <v>12060544</v>
+        <v>37096112</v>
       </c>
       <c r="G116">
-        <v>3.393104904148422</v>
+        <v>2.921534198063468</v>
       </c>
       <c r="H116">
-        <v>3.407385635375976</v>
+        <v>2.9144690990448</v>
       </c>
       <c r="I116">
-        <v>3.479444416364034</v>
+        <v>2.992839423815409</v>
       </c>
       <c r="L116">
-        <v>44.30353564384041</v>
+        <v>16.27155922518713</v>
       </c>
       <c r="M116">
-        <v>45.39832275215892</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>23.14861909971451</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>3.32090425491333</v>
+        <v>2.624735832214355</v>
       </c>
       <c r="C117">
-        <v>3.333105802536011</v>
+        <v>2.712419271469116</v>
       </c>
       <c r="D117">
-        <v>3.262886524200439</v>
+        <v>2.624735832214355</v>
       </c>
       <c r="E117">
-        <v>3.30580735206604</v>
+        <v>2.639877319335937</v>
       </c>
       <c r="F117">
-        <v>311696</v>
+        <v>23299072</v>
       </c>
       <c r="G117">
-        <v>3.385168763050024</v>
+        <v>2.895929027270056</v>
       </c>
       <c r="H117">
-        <v>3.395231854915619</v>
+        <v>2.900352764129638</v>
       </c>
       <c r="I117">
-        <v>3.470406730969747</v>
+        <v>2.971007990837097</v>
       </c>
       <c r="L117">
-        <v>42.48426420783542</v>
+        <v>20.01254411616563</v>
       </c>
       <c r="M117">
-        <v>44.29349621954545</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>25.37373039832439</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>3.302843809127808</v>
+        <v>2.644245862960815</v>
       </c>
       <c r="C118">
-        <v>3.341043472290039</v>
+        <v>2.712382078170776</v>
       </c>
       <c r="D118">
-        <v>3.300814867019653</v>
+        <v>2.644245862960815</v>
       </c>
       <c r="E118">
-        <v>3.318094253540039</v>
+        <v>2.703663825988769</v>
       </c>
       <c r="F118">
-        <v>572048</v>
+        <v>3070624</v>
       </c>
       <c r="G118">
-        <v>3.379071080367298</v>
+        <v>2.878450372608121</v>
       </c>
       <c r="H118">
-        <v>3.380968677997589</v>
+        <v>2.887066054344177</v>
       </c>
       <c r="I118">
-        <v>3.459228976567586</v>
+        <v>2.952335929870606</v>
       </c>
       <c r="L118">
-        <v>43.99624473097445</v>
+        <v>31.64561885280256</v>
       </c>
       <c r="M118">
-        <v>45.1338475412602</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>32.49983615628601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>3.332223892211914</v>
+        <v>2.702314853668213</v>
       </c>
       <c r="C119">
-        <v>3.332223892211914</v>
+        <v>2.719942808151245</v>
       </c>
       <c r="D119">
-        <v>3.22565484046936</v>
+        <v>2.610108613967896</v>
       </c>
       <c r="E119">
-        <v>3.261779308319092</v>
+        <v>2.610108613967896</v>
       </c>
       <c r="F119">
-        <v>7910368</v>
+        <v>2317680</v>
       </c>
       <c r="G119">
-        <v>3.368408191999279</v>
+        <v>2.854055667277191</v>
       </c>
       <c r="H119">
-        <v>3.371560001373291</v>
+        <v>2.867458057403565</v>
       </c>
       <c r="I119">
-        <v>3.446820012728373</v>
+        <v>2.928140528996785</v>
       </c>
       <c r="L119">
-        <v>38.74450232504406</v>
+        <v>25.52119394439483</v>
       </c>
       <c r="M119">
-        <v>42.00608907940263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>28.24037346200094</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>3.259325265884399</v>
+        <v>2.619868040084839</v>
       </c>
       <c r="C120">
-        <v>3.30643630027771</v>
+        <v>2.622732877731323</v>
       </c>
       <c r="D120">
-        <v>3.248185634613037</v>
+        <v>2.491280555725098</v>
       </c>
       <c r="E120">
-        <v>3.277533531188965</v>
+        <v>2.491957664489746</v>
       </c>
       <c r="F120">
-        <v>7038352</v>
+        <v>28226832</v>
       </c>
       <c r="G120">
-        <v>3.360146859198341</v>
+        <v>2.821137667023787</v>
       </c>
       <c r="H120">
-        <v>3.363826668262482</v>
+        <v>2.843915069103241</v>
       </c>
       <c r="I120">
-        <v>3.430424539248149</v>
+        <v>2.903097478548686</v>
       </c>
       <c r="L120">
-        <v>40.96240411955591</v>
+        <v>20.01721139903311</v>
       </c>
       <c r="M120">
-        <v>43.19212380733548</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>23.96808226687237</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>3.276344060897827</v>
+        <v>2.505817890167236</v>
       </c>
       <c r="C121">
-        <v>3.301249504089355</v>
+        <v>2.654784202575684</v>
       </c>
       <c r="D121">
-        <v>3.190180778503418</v>
+        <v>2.463397264480591</v>
       </c>
       <c r="E121">
-        <v>3.238801717758179</v>
+        <v>2.629083395004272</v>
       </c>
       <c r="F121">
-        <v>8680400</v>
+        <v>9167264</v>
       </c>
       <c r="G121">
-        <v>3.349115482703781</v>
+        <v>2.803678187749286</v>
       </c>
       <c r="H121">
-        <v>3.351934409141541</v>
+        <v>2.827715563774109</v>
       </c>
       <c r="I121">
-        <v>3.418221545219422</v>
+        <v>2.883842293421428</v>
       </c>
       <c r="L121">
-        <v>37.23370873312943</v>
+        <v>37.59075203756396</v>
       </c>
       <c r="M121">
-        <v>40.97354878779958</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>36.05846127108357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>3.241620063781738</v>
+        <v>2.638229846954346</v>
       </c>
       <c r="C122">
-        <v>3.285011291503906</v>
+        <v>2.639682292938232</v>
       </c>
       <c r="D122">
-        <v>3.23194146156311</v>
+        <v>2.580625534057617</v>
       </c>
       <c r="E122">
-        <v>3.240173816680908</v>
+        <v>2.580625534057617</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>5242048</v>
       </c>
       <c r="G122">
-        <v>3.33921169488352</v>
+        <v>2.783400673777316</v>
       </c>
       <c r="H122">
-        <v>3.344680750370026</v>
+        <v>2.810008156299591</v>
       </c>
       <c r="I122">
-        <v>3.403491870562235</v>
+        <v>2.868847417831421</v>
       </c>
       <c r="L122">
-        <v>37.46058829443166</v>
+        <v>34.57099235831688</v>
       </c>
       <c r="M122">
-        <v>41.08899196980497</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>34.0008482889156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>3.244587182998657</v>
+        <v>2.579091310501098</v>
       </c>
       <c r="C123">
-        <v>3.299723386764526</v>
+        <v>2.645976305007935</v>
       </c>
       <c r="D123">
-        <v>3.233737707138061</v>
+        <v>2.575162649154663</v>
       </c>
       <c r="E123">
-        <v>3.233737707138061</v>
+        <v>2.645976305007935</v>
       </c>
       <c r="F123">
-        <v>5563936</v>
+        <v>1783120</v>
       </c>
       <c r="G123">
-        <v>3.329623150543024</v>
+        <v>2.770907549343735</v>
       </c>
       <c r="H123">
-        <v>3.334853816032409</v>
+        <v>2.797032821178436</v>
       </c>
       <c r="I123">
-        <v>3.39064253171285</v>
+        <v>2.854606715838115</v>
       </c>
       <c r="L123">
-        <v>36.75941079097927</v>
+        <v>41.67910857229268</v>
       </c>
       <c r="M123">
-        <v>40.68701595345205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>39.05196462966927</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>3.235607147216797</v>
+        <v>2.649061441421509</v>
       </c>
       <c r="C124">
-        <v>3.281690359115601</v>
+        <v>2.661084651947021</v>
       </c>
       <c r="D124">
-        <v>3.228834629058838</v>
+        <v>2.594724655151367</v>
       </c>
       <c r="E124">
-        <v>3.239160060882568</v>
+        <v>2.608773231506348</v>
       </c>
       <c r="F124">
-        <v>1871472</v>
+        <v>1573520</v>
       </c>
       <c r="G124">
-        <v>3.321399233301164</v>
+        <v>2.756168065903973</v>
       </c>
       <c r="H124">
-        <v>3.325021970272064</v>
+        <v>2.781626808643341</v>
       </c>
       <c r="I124">
-        <v>3.379136029879252</v>
+        <v>2.841756502787272</v>
       </c>
       <c r="L124">
-        <v>37.86178512916415</v>
+        <v>38.9678481307315</v>
       </c>
       <c r="M124">
-        <v>41.20885393335542</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>37.30175114076948</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>3.234586477279663</v>
+        <v>2.610407829284668</v>
       </c>
       <c r="C125">
-        <v>3.250602245330811</v>
+        <v>2.631355285644531</v>
       </c>
       <c r="D125">
-        <v>3.167702674865723</v>
+        <v>2.569464445114136</v>
       </c>
       <c r="E125">
-        <v>3.167702674865723</v>
+        <v>2.595698356628418</v>
       </c>
       <c r="F125">
-        <v>877168</v>
+        <v>15105520</v>
       </c>
       <c r="G125">
-        <v>3.307426818897942</v>
+        <v>2.741579910515286</v>
       </c>
       <c r="H125">
-        <v>3.313163018226624</v>
+        <v>2.763709819316864</v>
       </c>
       <c r="I125">
-        <v>3.367058157920837</v>
+        <v>2.827622270584107</v>
       </c>
       <c r="L125">
-        <v>30.08649526550795</v>
+        <v>37.99074178683149</v>
       </c>
       <c r="M125">
-        <v>36.63459011266749</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>36.6795714977067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>3.171902179718018</v>
+        <v>2.592535257339477</v>
       </c>
       <c r="C126">
-        <v>3.3012855052948</v>
+        <v>2.633880376815796</v>
       </c>
       <c r="D126">
-        <v>3.171902179718018</v>
+        <v>2.566663980484009</v>
       </c>
       <c r="E126">
-        <v>3.284318923950196</v>
+        <v>2.582136631011963</v>
       </c>
       <c r="F126">
-        <v>6889584</v>
+        <v>2753040</v>
       </c>
       <c r="G126">
-        <v>3.30532610117542</v>
+        <v>2.727085066924074</v>
       </c>
       <c r="H126">
-        <v>3.309912276268006</v>
+        <v>2.741473746299744</v>
       </c>
       <c r="I126">
-        <v>3.35716073513031</v>
+        <v>2.812576095263163</v>
       </c>
       <c r="L126">
-        <v>49.22890147670611</v>
+        <v>36.91075541106468</v>
       </c>
       <c r="M126">
-        <v>46.97839199156836</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>36.00867456221322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>3.290692806243896</v>
+        <v>2.582947731018066</v>
       </c>
       <c r="C127">
-        <v>3.360969543457031</v>
+        <v>2.599682807922364</v>
       </c>
       <c r="D127">
-        <v>3.262856721878052</v>
+        <v>2.549574613571167</v>
       </c>
       <c r="E127">
-        <v>3.347223281860352</v>
+        <v>2.595447540283203</v>
       </c>
       <c r="F127">
-        <v>15732240</v>
+        <v>6980368</v>
       </c>
       <c r="G127">
-        <v>3.309134935783141</v>
+        <v>2.715118019047632</v>
       </c>
       <c r="H127">
-        <v>3.305520749092102</v>
+        <v>2.721974062919617</v>
       </c>
       <c r="I127">
-        <v>3.350438745816549</v>
+        <v>2.801684212684632</v>
       </c>
       <c r="L127">
-        <v>56.46276750086299</v>
+        <v>38.83083121427439</v>
       </c>
       <c r="M127">
-        <v>51.57081084852393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>37.22238152718491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>3.31827163696289</v>
+        <v>2.602877140045166</v>
       </c>
       <c r="C128">
-        <v>3.322985410690308</v>
+        <v>2.62833571434021</v>
       </c>
       <c r="D128">
-        <v>3.262439966201782</v>
+        <v>2.578547477722168</v>
       </c>
       <c r="E128">
-        <v>3.293049573898315</v>
+        <v>2.593558311462402</v>
       </c>
       <c r="F128">
-        <v>3771568</v>
+        <v>6203568</v>
       </c>
       <c r="G128">
-        <v>3.307672630157247</v>
+        <v>2.704067136539884</v>
       </c>
       <c r="H128">
-        <v>3.300406503677368</v>
+        <v>2.701904666423798</v>
       </c>
       <c r="I128">
-        <v>3.340095138549805</v>
+        <v>2.789156222343445</v>
       </c>
       <c r="L128">
-        <v>49.61391587442048</v>
+        <v>38.64304498160855</v>
       </c>
       <c r="M128">
-        <v>47.7361374220738</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>37.11478426980972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>3.295703649520874</v>
+        <v>2.601083040237427</v>
       </c>
       <c r="C129">
-        <v>3.337846755981445</v>
+        <v>2.688117980957031</v>
       </c>
       <c r="D129">
-        <v>3.264560461044312</v>
+        <v>2.593777894973755</v>
       </c>
       <c r="E129">
-        <v>3.294820308685303</v>
+        <v>2.68336296081543</v>
       </c>
       <c r="F129">
-        <v>3573792</v>
+        <v>2804960</v>
       </c>
       <c r="G129">
-        <v>3.306504237296161</v>
+        <v>2.702184938746751</v>
       </c>
       <c r="H129">
-        <v>3.292156505584717</v>
+        <v>2.68801703453064</v>
       </c>
       <c r="I129">
-        <v>3.334924054145813</v>
+        <v>2.778526035944621</v>
       </c>
       <c r="L129">
-        <v>49.83765960094549</v>
+        <v>51.25042116853698</v>
       </c>
       <c r="M129">
-        <v>47.87257698516271</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>45.22086879190548</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>3.304763078689575</v>
+        <v>2.67996883392334</v>
       </c>
       <c r="C130">
-        <v>3.304956436157227</v>
+        <v>2.718951225280762</v>
       </c>
       <c r="D130">
-        <v>3.216539144515991</v>
+        <v>2.646801471710205</v>
       </c>
       <c r="E130">
-        <v>3.263825654983521</v>
+        <v>2.657865285873413</v>
       </c>
       <c r="F130">
-        <v>1073776</v>
+        <v>3573792</v>
       </c>
       <c r="G130">
-        <v>3.30262436617683</v>
+        <v>2.698155879394629</v>
       </c>
       <c r="H130">
-        <v>3.28744775056839</v>
+        <v>2.672258591651917</v>
       </c>
       <c r="I130">
-        <v>3.329311569531759</v>
+        <v>2.768360964457194</v>
       </c>
       <c r="L130">
-        <v>45.83012659296553</v>
+        <v>48.09392397940289</v>
       </c>
       <c r="M130">
-        <v>45.62724276855187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>43.50612432043958</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>3.258517503738404</v>
+        <v>2.658211469650269</v>
       </c>
       <c r="C131">
-        <v>3.349483489990234</v>
+        <v>2.679827928543091</v>
       </c>
       <c r="D131">
-        <v>3.258517503738404</v>
+        <v>2.637465715408325</v>
       </c>
       <c r="E131">
-        <v>3.335970640182495</v>
+        <v>2.671427011489868</v>
       </c>
       <c r="F131">
-        <v>3674592</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>3.305655845631891</v>
+        <v>2.695725982312378</v>
       </c>
       <c r="H131">
-        <v>3.289116585254669</v>
+        <v>2.659440124034882</v>
       </c>
       <c r="I131">
-        <v>3.324622360865275</v>
+        <v>2.758972748120626</v>
       </c>
       <c r="L131">
-        <v>55.25249671622747</v>
+        <v>49.93883660117639</v>
       </c>
       <c r="M131">
-        <v>51.347356622952</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>44.70708571393251</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>3.338357925415039</v>
+        <v>2.672240257263184</v>
       </c>
       <c r="C132">
-        <v>3.354224920272827</v>
+        <v>2.713075637817383</v>
       </c>
       <c r="D132">
-        <v>3.24324917793274</v>
+        <v>2.626558065414429</v>
       </c>
       <c r="E132">
-        <v>3.24324917793274</v>
+        <v>2.705152273178101</v>
       </c>
       <c r="F132">
-        <v>9915440</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>3.299982512204695</v>
+        <v>2.696582917845626</v>
       </c>
       <c r="H132">
-        <v>3.282915115356445</v>
+        <v>2.650458765029907</v>
       </c>
       <c r="I132">
-        <v>3.319889100392659</v>
+        <v>2.751318701108297</v>
       </c>
       <c r="L132">
-        <v>44.14920249838737</v>
+        <v>54.46657019543301</v>
       </c>
       <c r="M132">
-        <v>44.82109360958264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>47.68543321645763</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>3.244556188583374</v>
+        <v>2.714606285095215</v>
       </c>
       <c r="C133">
-        <v>3.244556188583374</v>
+        <v>2.729106187820435</v>
       </c>
       <c r="D133">
-        <v>3.181456327438354</v>
+        <v>2.612038135528564</v>
       </c>
       <c r="E133">
-        <v>3.206738948822021</v>
+        <v>2.612038135528564</v>
       </c>
       <c r="F133">
-        <v>31968</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>3.291505824624452</v>
+        <v>2.688897028544075</v>
       </c>
       <c r="H133">
-        <v>3.275089979171753</v>
+        <v>2.636618459224701</v>
       </c>
       <c r="I133">
-        <v>3.312437852223714</v>
+        <v>2.741537205378215</v>
       </c>
       <c r="L133">
-        <v>40.54031099885805</v>
+        <v>42.52122907139021</v>
       </c>
       <c r="M133">
-        <v>42.52890849632737</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>41.10250448010855</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>3.20245099067688</v>
+        <v>2.621832847595215</v>
       </c>
       <c r="C134">
-        <v>3.20245099067688</v>
+        <v>2.719375848770142</v>
       </c>
       <c r="D134">
-        <v>3.030471801757812</v>
+        <v>2.617074012756348</v>
       </c>
       <c r="E134">
-        <v>3.030471801757812</v>
+        <v>2.689706802368164</v>
       </c>
       <c r="F134">
-        <v>15757760</v>
+        <v>1676592</v>
       </c>
       <c r="G134">
-        <v>3.267775458909302</v>
+        <v>2.688970644346264</v>
       </c>
       <c r="H134">
-        <v>3.258046960830689</v>
+        <v>2.631175100803375</v>
       </c>
       <c r="I134">
-        <v>3.298927013079326</v>
+        <v>2.733964316050212</v>
       </c>
       <c r="L134">
-        <v>28.07545818946362</v>
+        <v>52.33153297984508</v>
       </c>
       <c r="M134">
-        <v>33.59594432433523</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>47.60044761998498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>3.022028684616089</v>
+        <v>2.694143772125244</v>
       </c>
       <c r="C135">
-        <v>3.086212873458862</v>
+        <v>2.738893270492554</v>
       </c>
       <c r="D135">
-        <v>3.004645586013794</v>
+        <v>2.689579963684082</v>
       </c>
       <c r="E135">
-        <v>3.073197364807129</v>
+        <v>2.69831919670105</v>
       </c>
       <c r="F135">
-        <v>9976384</v>
+        <v>2915824</v>
       </c>
       <c r="G135">
-        <v>3.25008654126365</v>
+        <v>2.689820512742154</v>
       </c>
       <c r="H135">
-        <v>3.24912439584732</v>
+        <v>2.630790817737579</v>
       </c>
       <c r="I135">
-        <v>3.287870868047079</v>
+        <v>2.725440351168315</v>
       </c>
       <c r="L135">
-        <v>33.63936152444476</v>
+        <v>53.32530565063155</v>
       </c>
       <c r="M135">
-        <v>37.04757953857035</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>48.28182081508506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>3.075924873352051</v>
+        <v>2.697277069091797</v>
       </c>
       <c r="C136">
-        <v>3.082350254058838</v>
+        <v>2.752228260040283</v>
       </c>
       <c r="D136">
-        <v>2.959724187850952</v>
+        <v>2.651101350784302</v>
       </c>
       <c r="E136">
-        <v>2.994279623031616</v>
+        <v>2.729944705963135</v>
       </c>
       <c r="F136">
-        <v>11800992</v>
+        <v>4079120</v>
       </c>
       <c r="G136">
-        <v>3.22683136687892</v>
+        <v>2.693468166671334</v>
       </c>
       <c r="H136">
-        <v>3.232496786117554</v>
+        <v>2.636236155033111</v>
       </c>
       <c r="I136">
-        <v>3.276035730044047</v>
+        <v>2.71554323832194</v>
       </c>
       <c r="L136">
-        <v>28.98079645403006</v>
+        <v>57.02634968928847</v>
       </c>
       <c r="M136">
-        <v>33.57597348165653</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>50.81124464416381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>3.002307176589966</v>
+        <v>2.724750518798828</v>
       </c>
       <c r="C137">
-        <v>3.053345203399658</v>
+        <v>2.790403127670288</v>
       </c>
       <c r="D137">
-        <v>3.001291275024414</v>
+        <v>2.724750518798828</v>
       </c>
       <c r="E137">
-        <v>3.019725322723389</v>
+        <v>2.745503664016724</v>
       </c>
       <c r="F137">
-        <v>1750640</v>
+        <v>11369456</v>
       </c>
       <c r="G137">
-        <v>3.208003544682962</v>
+        <v>2.698198666430005</v>
       </c>
       <c r="H137">
-        <v>3.218192684650421</v>
+        <v>2.641517472267151</v>
       </c>
       <c r="I137">
-        <v>3.262191446622213</v>
+        <v>2.707545320192973</v>
       </c>
       <c r="L137">
-        <v>32.37772543217994</v>
+        <v>58.83305337787746</v>
       </c>
       <c r="M137">
-        <v>35.66918951467561</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>52.05364520729096</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>3.018874645233154</v>
+        <v>2.747882127761841</v>
       </c>
       <c r="C138">
-        <v>3.049735069274902</v>
+        <v>2.938313245773315</v>
       </c>
       <c r="D138">
-        <v>2.985841751098633</v>
+        <v>2.747882127761841</v>
       </c>
       <c r="E138">
-        <v>3.033521890640259</v>
+        <v>2.937204599380493</v>
       </c>
       <c r="F138">
-        <v>1267584</v>
+        <v>42758352</v>
       </c>
       <c r="G138">
-        <v>3.192141576133626</v>
+        <v>2.719926478516413</v>
       </c>
       <c r="H138">
-        <v>3.203964066505432</v>
+        <v>2.653194510936737</v>
       </c>
       <c r="I138">
-        <v>3.250131026903788</v>
+        <v>2.70562059879303</v>
       </c>
       <c r="L138">
-        <v>34.29471676517</v>
+        <v>73.99021082883455</v>
       </c>
       <c r="M138">
-        <v>36.83152263249214</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>64.08885082260312</v>
+      </c>
+      <c r="O138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>3.032090425491333</v>
+        <v>2.912469625473022</v>
       </c>
       <c r="C139">
-        <v>3.032720804214477</v>
+        <v>2.986380338668823</v>
       </c>
       <c r="D139">
-        <v>2.909913301467896</v>
+        <v>2.909460067749023</v>
       </c>
       <c r="E139">
-        <v>2.92220401763916</v>
+        <v>2.986380338668823</v>
       </c>
       <c r="F139">
-        <v>10828176</v>
+        <v>26720944</v>
       </c>
       <c r="G139">
-        <v>3.167601798088674</v>
+        <v>2.744149556712086</v>
       </c>
       <c r="H139">
-        <v>3.186985301971435</v>
+        <v>2.672008097171783</v>
       </c>
       <c r="I139">
-        <v>3.232210485140483</v>
+        <v>2.706462756792704</v>
       </c>
       <c r="L139">
-        <v>27.27600388231622</v>
+        <v>76.48842681512589</v>
       </c>
       <c r="M139">
-        <v>31.83373592039761</v>
-      </c>
-      <c r="N139" t="s">
+        <v>66.41759139739216</v>
+      </c>
+      <c r="O139" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>2.914111137390137</v>
+        <v>2.987178564071656</v>
       </c>
       <c r="C140">
-        <v>2.973350763320923</v>
+        <v>2.997747182846069</v>
       </c>
       <c r="D140">
-        <v>2.800168037414551</v>
+        <v>2.897720575332642</v>
       </c>
       <c r="E140">
-        <v>2.969398021697998</v>
+        <v>2.897720575332642</v>
       </c>
       <c r="F140">
-        <v>13233920</v>
+        <v>22735552</v>
       </c>
       <c r="G140">
-        <v>3.149583272962249</v>
+        <v>2.758110558404864</v>
       </c>
       <c r="H140">
-        <v>3.171578526496887</v>
+        <v>2.692296242713928</v>
       </c>
       <c r="I140">
-        <v>3.219257060686747</v>
+        <v>2.703952304522196</v>
       </c>
       <c r="L140">
-        <v>33.74345955312669</v>
+        <v>64.01698751959449</v>
       </c>
       <c r="M140">
-        <v>35.81048982300083</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>58.99026502917851</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>2.970523118972778</v>
+        <v>2.896511554718018</v>
       </c>
       <c r="C141">
-        <v>3.002268552780152</v>
+        <v>2.928614854812622</v>
       </c>
       <c r="D141">
-        <v>2.947621583938598</v>
+        <v>2.819395303726196</v>
       </c>
       <c r="E141">
-        <v>3.002268552780152</v>
+        <v>2.928614854812622</v>
       </c>
       <c r="F141">
-        <v>622816</v>
+        <v>26719808</v>
       </c>
       <c r="G141">
-        <v>3.136191025672967</v>
+        <v>2.773610948987387</v>
       </c>
       <c r="H141">
-        <v>3.159751868247986</v>
+        <v>2.707272815704346</v>
       </c>
       <c r="I141">
-        <v>3.209246214230855</v>
+        <v>2.703979587554932</v>
       </c>
       <c r="L141">
-        <v>38.05966114380416</v>
+        <v>66.17878066374617</v>
       </c>
       <c r="M141">
-        <v>38.50157708605357</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>60.64192053993995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>3.005245208740234</v>
+        <v>2.912253379821777</v>
       </c>
       <c r="C142">
-        <v>3.005245208740234</v>
+        <v>2.958381652832031</v>
       </c>
       <c r="D142">
-        <v>2.931080818176269</v>
+        <v>2.910441160202026</v>
       </c>
       <c r="E142">
-        <v>2.962817430496216</v>
+        <v>2.938264131546021</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>13728512</v>
       </c>
       <c r="G142">
-        <v>3.120429789747808</v>
+        <v>2.788579420129081</v>
       </c>
       <c r="H142">
-        <v>3.145884048938751</v>
+        <v>2.725154745578766</v>
       </c>
       <c r="I142">
-        <v>3.195764176050822</v>
+        <v>2.705762410163879</v>
       </c>
       <c r="L142">
-        <v>34.98263850918783</v>
+        <v>66.8779825805636</v>
       </c>
       <c r="M142">
-        <v>36.52250505316425</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>61.16796688990675</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>2.963580131530762</v>
+        <v>2.932857751846313</v>
       </c>
       <c r="C143">
-        <v>2.968621015548706</v>
+        <v>2.935739994049072</v>
       </c>
       <c r="D143">
-        <v>2.933690309524536</v>
+        <v>2.845811605453491</v>
       </c>
       <c r="E143">
-        <v>2.953073501586914</v>
+        <v>2.847476005554199</v>
       </c>
       <c r="F143">
-        <v>40656</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>3.105215581733181</v>
+        <v>2.793933655167728</v>
       </c>
       <c r="H143">
-        <v>3.131850838661194</v>
+        <v>2.735229730606079</v>
       </c>
       <c r="I143">
-        <v>3.182091903686524</v>
+        <v>2.70438346862793</v>
       </c>
       <c r="L143">
-        <v>34.21404370141447</v>
+        <v>54.87079230496551</v>
       </c>
       <c r="M143">
-        <v>36.02989249794506</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>53.87215785135253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>2.948365688323975</v>
+        <v>2.838385105133057</v>
       </c>
       <c r="C144">
-        <v>2.951962232589722</v>
+        <v>2.897400379180908</v>
       </c>
       <c r="D144">
-        <v>2.89754605293274</v>
+        <v>2.833839178085327</v>
       </c>
       <c r="E144">
-        <v>2.934773683547974</v>
+        <v>2.889566898345948</v>
       </c>
       <c r="F144">
-        <v>96768</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>3.089720863716344</v>
+        <v>2.802627586365748</v>
       </c>
       <c r="H144">
-        <v>3.116631519794464</v>
+        <v>2.749269413948059</v>
       </c>
       <c r="I144">
-        <v>3.167539954185486</v>
+        <v>2.707416566212972</v>
       </c>
       <c r="L144">
-        <v>32.69626579652684</v>
+        <v>58.73492861639676</v>
       </c>
       <c r="M144">
-        <v>35.07310287633641</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>56.46475013079575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>2.933256149291992</v>
+        <v>2.89119029045105</v>
       </c>
       <c r="C145">
-        <v>2.933256149291992</v>
+        <v>2.9169762134552</v>
       </c>
       <c r="D145">
-        <v>2.87648868560791</v>
+        <v>2.874422073364258</v>
       </c>
       <c r="E145">
-        <v>2.90548300743103</v>
+        <v>2.905082702636719</v>
       </c>
       <c r="F145">
-        <v>976176</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>3.072971967690406</v>
+        <v>2.811941687844927</v>
       </c>
       <c r="H145">
-        <v>3.103520536422729</v>
+        <v>2.764738631248474</v>
       </c>
       <c r="I145">
-        <v>3.156001098950704</v>
+        <v>2.714052494366963</v>
       </c>
       <c r="L145">
-        <v>30.27767966610282</v>
+        <v>60.14994771792544</v>
       </c>
       <c r="M145">
-        <v>33.53793079972612</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>57.41491601133874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>2.896909475326538</v>
+        <v>2.89911413192749</v>
       </c>
       <c r="C146">
-        <v>2.918766498565674</v>
+        <v>2.934967994689941</v>
       </c>
       <c r="D146">
-        <v>2.885941743850708</v>
+        <v>2.888288021087646</v>
       </c>
       <c r="E146">
-        <v>2.916893482208252</v>
+        <v>2.934967994689941</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>3.058783014464756</v>
+        <v>2.82312589755811</v>
       </c>
       <c r="H146">
-        <v>3.085149264335632</v>
+        <v>2.782380199432373</v>
       </c>
       <c r="I146">
-        <v>3.142336487770081</v>
+        <v>2.724516828854879</v>
       </c>
       <c r="L146">
-        <v>32.46698523423466</v>
+        <v>62.90618697516816</v>
       </c>
       <c r="M146">
-        <v>34.736362128312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>59.25931392737707</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>2.913715839385986</v>
+        <v>2.93191385269165</v>
       </c>
       <c r="C147">
-        <v>2.955350637435913</v>
+        <v>2.935251235961914</v>
       </c>
       <c r="D147">
-        <v>2.913715839385986</v>
+        <v>2.899486303329468</v>
       </c>
       <c r="E147">
-        <v>2.954038143157959</v>
+        <v>2.908373117446899</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>3.049260753436865</v>
+        <v>2.830875644820727</v>
       </c>
       <c r="H147">
-        <v>3.065490007400513</v>
+        <v>2.798026478290558</v>
       </c>
       <c r="I147">
-        <v>3.130610847473144</v>
+        <v>2.733466688791911</v>
       </c>
       <c r="L147">
-        <v>39.432013623584</v>
+        <v>58.83240634498839</v>
       </c>
       <c r="M147">
-        <v>38.61667774766773</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>56.89765774243303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>2.96310019493103</v>
+        <v>2.911800146102905</v>
       </c>
       <c r="C148">
-        <v>3.037451505661011</v>
+        <v>3.029633760452271</v>
       </c>
       <c r="D148">
-        <v>2.960394382476806</v>
+        <v>2.911087036132812</v>
       </c>
       <c r="E148">
-        <v>3.02685809135437</v>
+        <v>3.027406692504883</v>
       </c>
       <c r="F148">
-        <v>3661936</v>
+        <v>14250416</v>
       </c>
       <c r="G148">
-        <v>3.047224147793002</v>
+        <v>2.848742103701105</v>
       </c>
       <c r="H148">
-        <v>3.052180433273315</v>
+        <v>2.819718897342682</v>
       </c>
       <c r="I148">
-        <v>3.120902975400289</v>
+        <v>2.744258117675781</v>
       </c>
       <c r="L148">
-        <v>50.65600976960044</v>
+        <v>68.95549476152587</v>
       </c>
       <c r="M148">
-        <v>45.46255646090501</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>63.84320071021038</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>3.030274629592896</v>
+        <v>3.045056581497192</v>
       </c>
       <c r="C149">
-        <v>3.030274629592896</v>
+        <v>3.048425436019897</v>
       </c>
       <c r="D149">
-        <v>2.970597505569458</v>
+        <v>2.985191345214844</v>
       </c>
       <c r="E149">
-        <v>2.985441207885742</v>
+        <v>2.990195035934448</v>
       </c>
       <c r="F149">
-        <v>1567784</v>
+        <v>29312480</v>
       </c>
       <c r="G149">
-        <v>3.041607516892342</v>
+        <v>2.861601461176863</v>
       </c>
       <c r="H149">
-        <v>3.036711478233337</v>
+        <v>2.835060501098633</v>
       </c>
       <c r="I149">
-        <v>3.111691705385844</v>
+        <v>2.756927665074666</v>
       </c>
       <c r="L149">
-        <v>45.28630030304303</v>
+        <v>63.4668335075034</v>
       </c>
       <c r="M149">
-        <v>42.55554526865666</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>60.55793429631476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>2.986093282699585</v>
+        <v>2.990389108657837</v>
       </c>
       <c r="C150">
-        <v>3.007007360458374</v>
+        <v>3.06462287902832</v>
       </c>
       <c r="D150">
-        <v>2.97861385345459</v>
+        <v>2.982531547546387</v>
       </c>
       <c r="E150">
-        <v>2.994946241378784</v>
+        <v>3.01768970489502</v>
       </c>
       <c r="F150">
-        <v>648216</v>
+        <v>17620624</v>
       </c>
       <c r="G150">
-        <v>3.037365582754746</v>
+        <v>2.875791301514877</v>
       </c>
       <c r="H150">
-        <v>3.023267507553101</v>
+        <v>2.853051722049713</v>
       </c>
       <c r="I150">
-        <v>3.102272129058838</v>
+        <v>2.774452066421509</v>
       </c>
       <c r="L150">
-        <v>46.74383355232215</v>
+        <v>65.73399783956111</v>
       </c>
       <c r="M150">
-        <v>43.44924611294257</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>62.10939800647341</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>2.994137048721313</v>
+        <v>3.016759872436523</v>
       </c>
       <c r="C151">
-        <v>3.003444910049438</v>
+        <v>3.016759872436523</v>
       </c>
       <c r="D151">
-        <v>2.953901290893555</v>
+        <v>2.929648160934448</v>
       </c>
       <c r="E151">
-        <v>2.961115598678589</v>
+        <v>2.940239667892456</v>
       </c>
       <c r="F151">
-        <v>2843648</v>
+        <v>22056544</v>
       </c>
       <c r="G151">
-        <v>3.03043376602055</v>
+        <v>2.881650243912839</v>
       </c>
       <c r="H151">
-        <v>3.004524755477905</v>
+        <v>2.866492354869842</v>
       </c>
       <c r="I151">
-        <v>3.093015925089518</v>
+        <v>2.784823942184448</v>
       </c>
       <c r="J151">
-        <v>3.476180969874064</v>
+        <v>3.185651230812073</v>
       </c>
       <c r="L151">
-        <v>42.238377714622</v>
+        <v>54.93111313454884</v>
       </c>
       <c r="M151">
-        <v>41.00405852948557</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>55.48814758195681</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>2.961137771606445</v>
+        <v>2.945746898651123</v>
       </c>
       <c r="C152">
-        <v>2.982812643051147</v>
+        <v>2.956248998641968</v>
       </c>
       <c r="D152">
-        <v>2.940927743911743</v>
+        <v>2.895289421081543</v>
       </c>
       <c r="E152">
-        <v>2.973034143447876</v>
+        <v>2.913015127182007</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>6198016</v>
       </c>
       <c r="G152">
-        <v>3.025215618513943</v>
+        <v>2.884501596937309</v>
       </c>
       <c r="H152">
-        <v>2.991014003753662</v>
+        <v>2.876885497570038</v>
       </c>
       <c r="I152">
-        <v>3.084111269315084</v>
+        <v>2.795903595288594</v>
       </c>
       <c r="J152">
-        <v>3.469516773497558</v>
+        <v>3.182040156591807</v>
       </c>
       <c r="L152">
-        <v>44.36376297831703</v>
+        <v>51.57903334100672</v>
       </c>
       <c r="M152">
-        <v>42.23737498179593</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>53.33573942220952</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>2.976489782333374</v>
+        <v>2.909098625183105</v>
       </c>
       <c r="C153">
-        <v>2.977857351303101</v>
+        <v>2.933311223983765</v>
       </c>
       <c r="D153">
-        <v>2.927458524703979</v>
+        <v>2.865658283233643</v>
       </c>
       <c r="E153">
-        <v>2.927796363830566</v>
+        <v>2.882696390151977</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>5661248</v>
       </c>
       <c r="G153">
-        <v>3.016359322633636</v>
+        <v>2.884337487229551</v>
       </c>
       <c r="H153">
-        <v>2.977066874504089</v>
+        <v>2.890418410301208</v>
       </c>
       <c r="I153">
-        <v>3.073913224538167</v>
+        <v>2.803794264793396</v>
       </c>
       <c r="J153">
-        <v>3.462341668733758</v>
+        <v>3.178075338493266</v>
       </c>
       <c r="L153">
-        <v>38.33984312348122</v>
+        <v>47.91569675769453</v>
       </c>
       <c r="M153">
-        <v>38.91229591670659</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>50.96475045508794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>2.921205043792725</v>
+        <v>2.880626678466797</v>
       </c>
       <c r="C154">
-        <v>2.94050407409668</v>
+        <v>2.919723272323608</v>
       </c>
       <c r="D154">
-        <v>2.851421117782593</v>
+        <v>2.859963893890381</v>
       </c>
       <c r="E154">
-        <v>2.884779453277588</v>
+        <v>2.90410304069519</v>
       </c>
       <c r="F154">
-        <v>5934808</v>
+        <v>251264</v>
       </c>
       <c r="G154">
-        <v>3.004397516328541</v>
+        <v>2.886134355726427</v>
       </c>
       <c r="H154">
-        <v>2.969782257080078</v>
+        <v>2.90113822221756</v>
       </c>
       <c r="I154">
-        <v>3.062100537618001</v>
+        <v>2.813638591766357</v>
       </c>
       <c r="J154">
-        <v>3.454691838065464</v>
+        <v>3.174446566337001</v>
       </c>
       <c r="L154">
-        <v>33.47702404985148</v>
+        <v>50.69711375389434</v>
       </c>
       <c r="M154">
-        <v>36.00932517205715</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>52.56801364586252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>2.88464903831482</v>
+        <v>2.905113458633423</v>
       </c>
       <c r="C155">
-        <v>2.922693729400635</v>
+        <v>2.929852247238159</v>
       </c>
       <c r="D155">
-        <v>2.857295989990234</v>
+        <v>2.879205703735352</v>
       </c>
       <c r="E155">
-        <v>2.88884425163269</v>
+        <v>2.879205703735352</v>
       </c>
       <c r="F155">
-        <v>4229072</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>2.993892674083463</v>
+        <v>2.885504478272693</v>
       </c>
       <c r="H155">
-        <v>2.960564601421356</v>
+        <v>2.910182547569275</v>
       </c>
       <c r="I155">
-        <v>3.052805256843567</v>
+        <v>2.823088836669922</v>
       </c>
       <c r="J155">
-        <v>3.447197168046487</v>
+        <v>3.170536091335654</v>
       </c>
       <c r="L155">
-        <v>34.3620280749874</v>
+        <v>47.38605776204265</v>
       </c>
       <c r="M155">
-        <v>36.49146429748436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>50.49989354552024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>2.886718988418579</v>
+        <v>2.880572557449341</v>
       </c>
       <c r="C156">
-        <v>2.886718988418579</v>
+        <v>2.967680215835572</v>
       </c>
       <c r="D156">
-        <v>2.780930757522583</v>
+        <v>2.875710487365723</v>
       </c>
       <c r="E156">
-        <v>2.798573970794678</v>
+        <v>2.935157537460327</v>
       </c>
       <c r="F156">
-        <v>16899800</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>2.976136428329938</v>
+        <v>2.890018392744296</v>
       </c>
       <c r="H156">
-        <v>2.950779318809509</v>
+        <v>2.920443189144135</v>
       </c>
       <c r="I156">
-        <v>3.036613758405049</v>
+        <v>2.834856200218201</v>
       </c>
       <c r="J156">
-        <v>3.438606132321298</v>
+        <v>3.167418494595584</v>
       </c>
       <c r="L156">
-        <v>25.79000527747375</v>
+        <v>54.84243327992041</v>
       </c>
       <c r="M156">
-        <v>30.9198229259694</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>54.80325167517464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>2.794795751571656</v>
+        <v>2.931501865386963</v>
       </c>
       <c r="C157">
-        <v>2.799160957336426</v>
+        <v>2.95972752571106</v>
       </c>
       <c r="D157">
-        <v>2.668008804321289</v>
+        <v>2.863906860351562</v>
       </c>
       <c r="E157">
-        <v>2.706004858016968</v>
+        <v>2.922611236572266</v>
       </c>
       <c r="F157">
-        <v>23646288</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>2.951579012846941</v>
+        <v>2.892981378546839</v>
       </c>
       <c r="H157">
-        <v>2.935093295574188</v>
+        <v>2.929298567771911</v>
       </c>
       <c r="I157">
-        <v>3.015239810943604</v>
+        <v>2.845761656761169</v>
       </c>
       <c r="J157">
-        <v>3.428902804184817</v>
+        <v>3.164176014356864</v>
       </c>
       <c r="L157">
-        <v>20.02653381130895</v>
+        <v>52.94946893621974</v>
       </c>
       <c r="M157">
-        <v>26.4585051506257</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>53.6763897311547</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>2.703314065933228</v>
+        <v>2.940665721893311</v>
       </c>
       <c r="C158">
-        <v>2.709086894989014</v>
+        <v>3.040714979171753</v>
       </c>
       <c r="D158">
-        <v>2.605871677398682</v>
+        <v>2.936231851577759</v>
       </c>
       <c r="E158">
-        <v>2.62103796005249</v>
+        <v>3.030626773834229</v>
       </c>
       <c r="F158">
-        <v>37096112</v>
+        <v>20637944</v>
       </c>
       <c r="G158">
-        <v>2.921529826229263</v>
+        <v>2.905494596300238</v>
       </c>
       <c r="H158">
-        <v>2.9144690990448</v>
+        <v>2.933969676494598</v>
       </c>
       <c r="I158">
-        <v>2.992839423815409</v>
+        <v>2.860330605506897</v>
       </c>
       <c r="J158">
-        <v>3.418202607573793</v>
+        <v>3.162407150243982</v>
       </c>
       <c r="L158">
-        <v>16.271621959402</v>
+        <v>64.73791905044244</v>
       </c>
       <c r="M158">
-        <v>23.15590321320766</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>61.09360080637211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>2.624735832214355</v>
+        <v>3.025748252868652</v>
       </c>
       <c r="C159">
-        <v>2.712419271469116</v>
+        <v>3.054469347000122</v>
       </c>
       <c r="D159">
-        <v>2.624735832214355</v>
+        <v>3.005564212799072</v>
       </c>
       <c r="E159">
-        <v>2.639877319335937</v>
+        <v>3.007457971572876</v>
       </c>
       <c r="F159">
-        <v>23299072</v>
+        <v>2828528</v>
       </c>
       <c r="G159">
-        <v>2.895925052875324</v>
+        <v>2.914763994052296</v>
       </c>
       <c r="H159">
-        <v>2.900352764129638</v>
+        <v>2.935023558139801</v>
       </c>
       <c r="I159">
-        <v>2.971007990837097</v>
+        <v>2.871133772532145</v>
       </c>
       <c r="J159">
-        <v>3.407893663358722</v>
+        <v>3.160354843241716</v>
       </c>
       <c r="L159">
-        <v>20.01259397122382</v>
+        <v>61.04706521996976</v>
       </c>
       <c r="M159">
-        <v>25.3799678675612</v>
-      </c>
-      <c r="N159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>58.91457185180816</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>2.644245862960815</v>
+        <v>2.992602586746216</v>
       </c>
       <c r="C160">
-        <v>2.712382078170776</v>
+        <v>3.037034749984741</v>
       </c>
       <c r="D160">
-        <v>2.644245862960815</v>
+        <v>2.963493824005127</v>
       </c>
       <c r="E160">
-        <v>2.703663825988769</v>
+        <v>2.981202840805054</v>
       </c>
       <c r="F160">
-        <v>3070624</v>
+        <v>9571040</v>
       </c>
       <c r="G160">
-        <v>2.878446759522001</v>
+        <v>2.920803889211637</v>
       </c>
       <c r="H160">
-        <v>2.887066054344177</v>
+        <v>2.939197671413422</v>
       </c>
       <c r="I160">
-        <v>2.952335929870606</v>
+        <v>2.881911691029866</v>
       </c>
       <c r="J160">
-        <v>3.398566115843888</v>
+        <v>3.157981969037257</v>
       </c>
       <c r="L160">
-        <v>31.64563468087868</v>
+        <v>56.91064418907462</v>
       </c>
       <c r="M160">
-        <v>32.50305693559034</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>56.45714024284363</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>2.702314853668213</v>
+        <v>2.978983402252197</v>
       </c>
       <c r="C161">
-        <v>2.719942808151245</v>
+        <v>3.003673553466797</v>
       </c>
       <c r="D161">
-        <v>2.610108613967896</v>
+        <v>2.970778226852417</v>
       </c>
       <c r="E161">
-        <v>2.610108613967896</v>
+        <v>2.999206304550171</v>
       </c>
       <c r="F161">
-        <v>2317680</v>
+        <v>2200208</v>
       </c>
       <c r="G161">
-        <v>2.854052382653446</v>
+        <v>2.92793138151514</v>
       </c>
       <c r="H161">
-        <v>2.867458057403565</v>
+        <v>2.942727243900299</v>
       </c>
       <c r="I161">
-        <v>2.928140528996785</v>
+        <v>2.89283766746521</v>
       </c>
       <c r="J161">
-        <v>3.388122970123677</v>
+        <v>3.155878980103653</v>
       </c>
       <c r="L161">
-        <v>25.52121807788213</v>
+        <v>59.05105468894817</v>
       </c>
       <c r="M161">
-        <v>28.24442988296905</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>57.7582885062799</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>2.619868040084839</v>
+        <v>2.996525049209595</v>
       </c>
       <c r="C162">
-        <v>2.622732877731323</v>
+        <v>3.162582159042358</v>
       </c>
       <c r="D162">
-        <v>2.491280555725098</v>
+        <v>2.986261129379272</v>
       </c>
       <c r="E162">
-        <v>2.491957664489746</v>
+        <v>3.147502899169922</v>
       </c>
       <c r="F162">
-        <v>28226832</v>
+        <v>30260656</v>
       </c>
       <c r="G162">
-        <v>2.821134681002201</v>
+        <v>2.947892428574665</v>
       </c>
       <c r="H162">
-        <v>2.843915069103241</v>
+        <v>2.953189182281494</v>
       </c>
       <c r="I162">
-        <v>2.903097478548686</v>
+        <v>2.907582688331604</v>
       </c>
       <c r="J162">
-        <v>3.376253230976208</v>
+        <v>3.155768038634332</v>
       </c>
       <c r="L162">
-        <v>20.01723834133492</v>
+        <v>71.95881854239353</v>
       </c>
       <c r="M162">
-        <v>23.97259581292337</v>
-      </c>
-      <c r="N162" t="s">
+        <v>66.60933624504675</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>2.505817890167236</v>
+        <v>3.161443710327148</v>
       </c>
       <c r="C163">
-        <v>2.654784202575684</v>
+        <v>3.170966625213623</v>
       </c>
       <c r="D163">
-        <v>2.463397264480591</v>
+        <v>3.038532733917236</v>
       </c>
       <c r="E163">
-        <v>2.629083395004272</v>
+        <v>3.055847883224488</v>
       </c>
       <c r="F163">
-        <v>9167264</v>
+        <v>30560592</v>
       </c>
       <c r="G163">
-        <v>2.803675473184207</v>
+        <v>2.957706560815558</v>
       </c>
       <c r="H163">
-        <v>2.827715563774109</v>
+        <v>2.963607776165008</v>
       </c>
       <c r="I163">
-        <v>2.883842293421428</v>
+        <v>2.922376346588135</v>
       </c>
       <c r="J163">
-        <v>3.366356941758037</v>
+        <v>3.154444592867315</v>
       </c>
       <c r="L163">
-        <v>37.59075309573869</v>
+        <v>59.02267658906064</v>
       </c>
       <c r="M163">
-        <v>36.05970907732543</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>58.45671401971794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>2.638229846954346</v>
+        <v>3.052740812301636</v>
       </c>
       <c r="C164">
-        <v>2.639682292938232</v>
+        <v>3.212646484375</v>
       </c>
       <c r="D164">
-        <v>2.580625534057617</v>
+        <v>3.052740812301636</v>
       </c>
       <c r="E164">
-        <v>2.580625534057617</v>
+        <v>3.151758909225464</v>
       </c>
       <c r="F164">
-        <v>5242048</v>
+        <v>26429168</v>
       </c>
       <c r="G164">
-        <v>2.783398205990881</v>
+        <v>2.975347683398277</v>
       </c>
       <c r="H164">
-        <v>2.810008156299591</v>
+        <v>2.976717376708984</v>
       </c>
       <c r="I164">
-        <v>2.868847417831421</v>
+        <v>2.937778083483378</v>
       </c>
       <c r="J164">
-        <v>3.355949903245449</v>
+        <v>3.154409020898548</v>
       </c>
       <c r="L164">
-        <v>34.57099648650251</v>
+        <v>66.18011605002816</v>
       </c>
       <c r="M164">
-        <v>34.00243382531249</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>63.49223532618041</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>2.579091310501098</v>
+        <v>3.158867597579956</v>
       </c>
       <c r="C165">
-        <v>2.645976305007935</v>
+        <v>3.171389102935791</v>
       </c>
       <c r="D165">
-        <v>2.575162649154663</v>
+        <v>3.000043869018555</v>
       </c>
       <c r="E165">
-        <v>2.645976305007935</v>
+        <v>3.005808115005493</v>
       </c>
       <c r="F165">
-        <v>1783120</v>
+        <v>5225072</v>
       </c>
       <c r="G165">
-        <v>2.770905305901522</v>
+        <v>2.978116813544387</v>
       </c>
       <c r="H165">
-        <v>2.797032821178436</v>
+        <v>2.981753647327423</v>
       </c>
       <c r="I165">
-        <v>2.854606715838115</v>
+        <v>2.948027714093526</v>
       </c>
       <c r="J165">
-        <v>3.346546279427733</v>
+        <v>3.152440796979435</v>
       </c>
       <c r="L165">
-        <v>41.67910563230823</v>
+        <v>50.94607086107663</v>
       </c>
       <c r="M165">
-        <v>39.05250182076244</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>52.97023923393486</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>2.649061441421509</v>
+        <v>3.018829822540283</v>
       </c>
       <c r="C166">
-        <v>2.661084651947021</v>
+        <v>3.018829822540283</v>
       </c>
       <c r="D166">
-        <v>2.594724655151367</v>
+        <v>2.89571499824524</v>
       </c>
       <c r="E166">
-        <v>2.608773231506348</v>
+        <v>2.939503908157349</v>
       </c>
       <c r="F166">
-        <v>1573520</v>
+        <v>9973824</v>
       </c>
       <c r="G166">
-        <v>2.756166026411051</v>
+        <v>2.974606549418293</v>
       </c>
       <c r="H166">
-        <v>2.781626808643341</v>
+        <v>2.981980443000793</v>
       </c>
       <c r="I166">
-        <v>2.841756502787272</v>
+        <v>2.955013020833333</v>
       </c>
       <c r="J166">
-        <v>3.336774450978444</v>
+        <v>3.149620440836097</v>
       </c>
       <c r="L166">
-        <v>38.96784774270405</v>
+        <v>45.58339522599936</v>
       </c>
       <c r="M166">
-        <v>37.30257108032792</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>48.99766342153326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>2.610407829284668</v>
+        <v>2.941522836685181</v>
       </c>
       <c r="C167">
-        <v>2.631355285644531</v>
+        <v>2.953126907348633</v>
       </c>
       <c r="D167">
-        <v>2.569464445114136</v>
+        <v>2.909369945526123</v>
       </c>
       <c r="E167">
-        <v>2.595698356628418</v>
+        <v>2.944373846054077</v>
       </c>
       <c r="F167">
-        <v>15105520</v>
+        <v>7360832</v>
       </c>
       <c r="G167">
-        <v>2.741578056430812</v>
+        <v>2.971858121839728</v>
       </c>
       <c r="H167">
-        <v>2.763709819316864</v>
+        <v>2.983780479431152</v>
       </c>
       <c r="I167">
-        <v>2.827622270584107</v>
+        <v>2.961642026901245</v>
       </c>
       <c r="J167">
-        <v>3.326958873569835</v>
+        <v>3.146901942891964</v>
       </c>
       <c r="L167">
-        <v>37.99074223797253</v>
+        <v>46.05261477175777</v>
       </c>
       <c r="M167">
-        <v>36.6804850151083</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>49.29842939010231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>2.592535257339477</v>
+        <v>2.946151733398437</v>
       </c>
       <c r="C168">
-        <v>2.633880376815796</v>
+        <v>2.947078227996826</v>
       </c>
       <c r="D168">
-        <v>2.566663980484009</v>
+        <v>2.840678453445435</v>
       </c>
       <c r="E168">
-        <v>2.582136631011963</v>
+        <v>2.9017653465271</v>
       </c>
       <c r="F168">
-        <v>2753040</v>
+        <v>4707888</v>
       </c>
       <c r="G168">
-        <v>2.727083381392735</v>
+        <v>2.965486051356761</v>
       </c>
       <c r="H168">
-        <v>2.741473746299744</v>
+        <v>2.977498412132263</v>
       </c>
       <c r="I168">
-        <v>2.812576095263163</v>
+        <v>2.960460718472798</v>
       </c>
       <c r="J168">
-        <v>3.317093678304168</v>
+        <v>3.143655100556006</v>
       </c>
       <c r="L168">
-        <v>36.91075674009016</v>
+        <v>42.44977165081441</v>
       </c>
       <c r="M168">
-        <v>36.00968490826202</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>46.70338675289066</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>2.582947731018066</v>
+        <v>2.908192157745361</v>
       </c>
       <c r="C169">
-        <v>2.599682807922364</v>
+        <v>2.910949945449829</v>
       </c>
       <c r="D169">
-        <v>2.549574613571167</v>
+        <v>2.837253570556641</v>
       </c>
       <c r="E169">
-        <v>2.595447540283203</v>
+        <v>2.896545648574829</v>
       </c>
       <c r="F169">
-        <v>6980368</v>
+        <v>1379408</v>
       </c>
       <c r="G169">
-        <v>2.715116486746414</v>
+        <v>2.95921874201295</v>
       </c>
       <c r="H169">
-        <v>2.721974062919617</v>
+        <v>2.972815942764282</v>
       </c>
       <c r="I169">
-        <v>2.801684212684632</v>
+        <v>2.957466228802999</v>
       </c>
       <c r="J169">
-        <v>3.307535451310513</v>
+        <v>3.140382127682083</v>
       </c>
       <c r="L169">
-        <v>38.83083096748094</v>
+        <v>41.99696724674664</v>
       </c>
       <c r="M169">
-        <v>37.22317121489063</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>46.38128874300694</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>2.602877140045166</v>
+        <v>2.901803255081177</v>
       </c>
       <c r="C170">
-        <v>2.62833571434021</v>
+        <v>2.962825298309326</v>
       </c>
       <c r="D170">
-        <v>2.578547477722168</v>
+        <v>2.901803255081177</v>
       </c>
       <c r="E170">
-        <v>2.593558311462402</v>
+        <v>2.921759366989136</v>
       </c>
       <c r="F170">
-        <v>6203568</v>
+        <v>1945904</v>
       </c>
       <c r="G170">
-        <v>2.704065743538776</v>
+        <v>2.955813344283512</v>
       </c>
       <c r="H170">
-        <v>2.701904666423798</v>
+        <v>2.968019425868988</v>
       </c>
       <c r="I170">
-        <v>2.789156222343445</v>
+        <v>2.958267521858216</v>
       </c>
       <c r="J170">
-        <v>3.298078800451597</v>
+        <v>3.137486461977541</v>
       </c>
       <c r="L170">
-        <v>38.64304488544396</v>
+        <v>45.17499725912318</v>
       </c>
       <c r="M170">
-        <v>37.11558948674762</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>48.23834074468554</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>2.601083040237427</v>
+        <v>2.900902032852173</v>
       </c>
       <c r="C171">
-        <v>2.688117980957031</v>
+        <v>2.900955200195312</v>
       </c>
       <c r="D171">
-        <v>2.593777894973755</v>
+        <v>2.797990798950196</v>
       </c>
       <c r="E171">
-        <v>2.68336296081543</v>
+        <v>2.819056034088135</v>
       </c>
       <c r="F171">
-        <v>2804960</v>
+        <v>9601968</v>
       </c>
       <c r="G171">
-        <v>2.702183672382108</v>
+        <v>2.943380861538477</v>
       </c>
       <c r="H171">
-        <v>2.68801703453064</v>
+        <v>2.961960244178772</v>
       </c>
       <c r="I171">
-        <v>2.778526035944621</v>
+        <v>2.954615561167399</v>
       </c>
       <c r="J171">
-        <v>3.289936868800787</v>
+        <v>3.133268840416092</v>
       </c>
       <c r="L171">
-        <v>51.2504131209729</v>
+        <v>36.10887766034377</v>
       </c>
       <c r="M171">
-        <v>45.22040130024452</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>41.87614901470716</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>2.67996883392334</v>
+        <v>2.822094917297364</v>
       </c>
       <c r="C172">
-        <v>2.718951225280762</v>
+        <v>2.839816808700561</v>
       </c>
       <c r="D172">
-        <v>2.646801471710205</v>
+        <v>2.731737613677979</v>
       </c>
       <c r="E172">
-        <v>2.657865285873413</v>
+        <v>2.781294107437134</v>
       </c>
       <c r="F172">
-        <v>3573792</v>
+        <v>2087184</v>
       </c>
       <c r="G172">
-        <v>2.698154728154045</v>
+        <v>2.928645702074719</v>
       </c>
       <c r="H172">
-        <v>2.672258591651917</v>
+        <v>2.955374193191528</v>
       </c>
       <c r="I172">
-        <v>2.768360964457194</v>
+        <v>2.949383227030436</v>
       </c>
       <c r="J172">
-        <v>3.281565059755392</v>
+        <v>3.128606923422993</v>
       </c>
       <c r="L172">
-        <v>48.09391830030079</v>
+        <v>33.34113434908118</v>
       </c>
       <c r="M172">
-        <v>43.50591245096572</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>39.79775785094309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>2.658211469650269</v>
+        <v>2.785049676895142</v>
       </c>
       <c r="C173">
-        <v>2.679827928543091</v>
+        <v>2.800866603851318</v>
       </c>
       <c r="D173">
-        <v>2.637465715408325</v>
+        <v>2.763509035110474</v>
       </c>
       <c r="E173">
-        <v>2.671427011489868</v>
+        <v>2.792750120162964</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>670480</v>
       </c>
       <c r="G173">
-        <v>2.695724935730029</v>
+        <v>2.916291558264559</v>
       </c>
       <c r="H173">
-        <v>2.659440124034882</v>
+        <v>2.950876879692077</v>
       </c>
       <c r="I173">
-        <v>2.758972748120626</v>
+        <v>2.947559030850728</v>
       </c>
       <c r="J173">
-        <v>3.273483761102868</v>
+        <v>3.124158488942728</v>
       </c>
       <c r="L173">
-        <v>49.9388300682097</v>
+        <v>35.04049818237492</v>
       </c>
       <c r="M173">
-        <v>44.70671527212841</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>40.75837762172766</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>2.672240257263184</v>
+        <v>2.783606052398682</v>
       </c>
       <c r="C174">
-        <v>2.713075637817383</v>
+        <v>2.797001600265503</v>
       </c>
       <c r="D174">
-        <v>2.626558065414429</v>
+        <v>2.759037017822266</v>
       </c>
       <c r="E174">
-        <v>2.705152273178101</v>
+        <v>2.759037017822266</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>2.696581966407126</v>
+        <v>2.901995690951623</v>
       </c>
       <c r="H174">
-        <v>2.650458765029907</v>
+        <v>2.943623578548431</v>
       </c>
       <c r="I174">
-        <v>2.751318701108297</v>
+        <v>2.943208034833272</v>
       </c>
       <c r="J174">
-        <v>3.265956191726382</v>
+        <v>3.119322442967623</v>
       </c>
       <c r="L174">
-        <v>54.46656189675158</v>
+        <v>32.31323734154133</v>
       </c>
       <c r="M174">
-        <v>47.68470008456281</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>38.79645956398198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>2.714606285095215</v>
+        <v>2.758229255676269</v>
       </c>
       <c r="C175">
-        <v>2.729106187820435</v>
+        <v>2.851714611053467</v>
       </c>
       <c r="D175">
-        <v>2.612038135528564</v>
+        <v>2.752143383026123</v>
       </c>
       <c r="E175">
-        <v>2.612038135528564</v>
+        <v>2.818280935287476</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>2.688896163599984</v>
+        <v>2.894385258618519</v>
       </c>
       <c r="H175">
-        <v>2.636618459224701</v>
+        <v>2.940577340126038</v>
       </c>
       <c r="I175">
-        <v>2.741537205378215</v>
+        <v>2.940314642588298</v>
       </c>
       <c r="J175">
-        <v>3.257295025419126</v>
+        <v>3.115335138230137</v>
       </c>
       <c r="L175">
-        <v>42.52122744646997</v>
+        <v>41.33935175775699</v>
       </c>
       <c r="M175">
-        <v>41.10260154248227</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>43.90630493097049</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>2.621832847595215</v>
+        <v>2.811497926712036</v>
       </c>
       <c r="C176">
-        <v>2.719375848770142</v>
+        <v>2.861629724502563</v>
       </c>
       <c r="D176">
-        <v>2.617074012756348</v>
+        <v>2.786085844039917</v>
       </c>
       <c r="E176">
-        <v>2.689706802368164</v>
+        <v>2.861629724502563</v>
       </c>
       <c r="F176">
-        <v>1676592</v>
+        <v>2027360</v>
       </c>
       <c r="G176">
-        <v>2.688969858033455</v>
+        <v>2.891407482789796</v>
       </c>
       <c r="H176">
-        <v>2.631175100803375</v>
+        <v>2.93690094947815</v>
       </c>
       <c r="I176">
-        <v>2.733964316050212</v>
+        <v>2.937870033582052</v>
       </c>
       <c r="J176">
-        <v>3.249777300610504</v>
+        <v>3.111974801624474</v>
       </c>
       <c r="L176">
-        <v>52.33152832640641</v>
+        <v>47.14160631591484</v>
       </c>
       <c r="M176">
-        <v>47.59989377035883</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>47.36882399475904</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>2.694143772125244</v>
+        <v>2.859554052352905</v>
       </c>
       <c r="C177">
-        <v>2.738893270492554</v>
+        <v>2.872177839279175</v>
       </c>
       <c r="D177">
-        <v>2.689579963684082</v>
+        <v>2.829268217086792</v>
       </c>
       <c r="E177">
-        <v>2.69831919670105</v>
+        <v>2.853155136108398</v>
       </c>
       <c r="F177">
-        <v>2915824</v>
+        <v>206680</v>
       </c>
       <c r="G177">
-        <v>2.689819797912327</v>
+        <v>2.88792999672785</v>
       </c>
       <c r="H177">
-        <v>2.630790817737579</v>
+        <v>2.933428144454956</v>
       </c>
       <c r="I177">
-        <v>2.725440351168315</v>
+        <v>2.936029434204102</v>
       </c>
       <c r="J177">
-        <v>3.242473219764022</v>
+        <v>3.108546726584526</v>
       </c>
       <c r="L177">
-        <v>53.3253007663079</v>
+        <v>46.13791074029781</v>
       </c>
       <c r="M177">
-        <v>48.28120790781731</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>46.76112378064801</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>2.697277069091797</v>
+        <v>2.85346508026123</v>
       </c>
       <c r="C178">
-        <v>2.752228260040283</v>
+        <v>2.893849849700928</v>
       </c>
       <c r="D178">
-        <v>2.651101350784302</v>
+        <v>2.847226619720459</v>
       </c>
       <c r="E178">
-        <v>2.729944705963135</v>
+        <v>2.864885330200196</v>
       </c>
       <c r="F178">
-        <v>4079120</v>
+        <v>739256</v>
       </c>
       <c r="G178">
-        <v>2.693467516826037</v>
+        <v>2.885835027043518</v>
       </c>
       <c r="H178">
-        <v>2.636236155033111</v>
+        <v>2.925141072273255</v>
       </c>
       <c r="I178">
-        <v>2.71554323832194</v>
+        <v>2.930612055460612</v>
       </c>
       <c r="J178">
-        <v>3.235684762627586</v>
+        <v>3.105319423321158</v>
       </c>
       <c r="L178">
-        <v>57.02634406792706</v>
+        <v>47.86635288666158</v>
       </c>
       <c r="M178">
-        <v>50.81042776964059</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>47.7601344006998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>2.724750518798828</v>
+        <v>2.863520383834839</v>
       </c>
       <c r="C179">
-        <v>2.790403127670288</v>
+        <v>2.876519680023193</v>
       </c>
       <c r="D179">
-        <v>2.724750518798828</v>
+        <v>2.839890956878662</v>
       </c>
       <c r="E179">
-        <v>2.745503664016724</v>
+        <v>2.871323823928833</v>
       </c>
       <c r="F179">
-        <v>11369456</v>
+        <v>95288</v>
       </c>
       <c r="G179">
-        <v>2.698198075661554</v>
+        <v>2.884515826760365</v>
       </c>
       <c r="H179">
-        <v>2.641517472267151</v>
+        <v>2.918334364891053</v>
       </c>
       <c r="I179">
-        <v>2.707545320192973</v>
+        <v>2.926649681727092</v>
       </c>
       <c r="J179">
-        <v>3.229192297745323</v>
+        <v>3.102220143859008</v>
       </c>
       <c r="L179">
-        <v>58.83304746706796</v>
+        <v>48.87933036030897</v>
       </c>
       <c r="M179">
-        <v>52.05273695870631</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>48.33321593877557</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>2.747882127761841</v>
+        <v>2.871382474899292</v>
       </c>
       <c r="C180">
-        <v>2.938313245773315</v>
+        <v>2.905716419219971</v>
       </c>
       <c r="D180">
-        <v>2.747882127761841</v>
+        <v>2.835123777389526</v>
       </c>
       <c r="E180">
-        <v>2.937204599380493</v>
+        <v>2.892756223678589</v>
       </c>
       <c r="F180">
-        <v>42758352</v>
+        <v>5906552</v>
       </c>
       <c r="G180">
-        <v>2.719925941454185</v>
+        <v>2.88526495375293</v>
       </c>
       <c r="H180">
-        <v>2.653194510936737</v>
+        <v>2.91391203403473</v>
       </c>
       <c r="I180">
-        <v>2.70562059879303</v>
+        <v>2.92248523235321</v>
       </c>
       <c r="J180">
-        <v>3.225324911012014</v>
+        <v>3.099445787300327</v>
       </c>
       <c r="L180">
-        <v>73.99020430738926</v>
+        <v>52.34680095762209</v>
       </c>
       <c r="M180">
-        <v>64.08735787676021</v>
-      </c>
-      <c r="O180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>50.2882079776321</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>2.912469625473022</v>
+        <v>2.89207410812378</v>
       </c>
       <c r="C181">
-        <v>2.986380338668823</v>
+        <v>2.932829856872559</v>
       </c>
       <c r="D181">
-        <v>2.909460067749023</v>
+        <v>2.850684404373169</v>
       </c>
       <c r="E181">
-        <v>2.986380338668823</v>
+        <v>2.932829856872559</v>
       </c>
       <c r="F181">
-        <v>26720944</v>
+        <v>9514208</v>
       </c>
       <c r="G181">
-        <v>2.744149068473697</v>
+        <v>2.889589035854715</v>
       </c>
       <c r="H181">
-        <v>2.672008097171784</v>
+        <v>2.910593211650849</v>
       </c>
       <c r="I181">
-        <v>2.706462756792704</v>
+        <v>2.922238238652547</v>
       </c>
       <c r="J181">
-        <v>3.222160082239256</v>
+        <v>3.097238953784728</v>
       </c>
       <c r="L181">
-        <v>76.48842050483579</v>
+        <v>58.29691004451477</v>
       </c>
       <c r="M181">
-        <v>66.41604820941612</v>
-      </c>
-      <c r="O181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>53.80766811709391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>2.987178564071656</v>
+        <v>2.934818029403687</v>
       </c>
       <c r="C182">
-        <v>2.997747182846069</v>
+        <v>2.939679145812988</v>
       </c>
       <c r="D182">
-        <v>2.90892481803894</v>
+        <v>2.920757532119751</v>
       </c>
       <c r="E182">
-        <v>2.932097434997559</v>
+        <v>2.920757532119751</v>
       </c>
       <c r="F182">
-        <v>22662944</v>
+        <v>326568</v>
       </c>
       <c r="G182">
-        <v>2.76123528361223</v>
+        <v>2.892422535515172</v>
       </c>
       <c r="H182">
-        <v>2.694015085697175</v>
+        <v>2.89925594329834</v>
       </c>
       <c r="I182">
-        <v>2.70509819984436</v>
+        <v>2.922496318817139</v>
       </c>
       <c r="J182">
-        <v>3.218318192871817</v>
+        <v>3.09490145151102</v>
       </c>
       <c r="L182">
-        <v>68.33732889883755</v>
+        <v>55.93010118839348</v>
       </c>
       <c r="M182">
-        <v>61.66286110021031</v>
+        <v>52.5995333088611</v>
       </c>
     </row>
   </sheetData>
